--- a/Release Files/2 - Board Assembly/TK2560_Grouped BOM.xlsx
+++ b/Release Files/2 - Board Assembly/TK2560_Grouped BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2560_TrainingKit\DesignFiles\2560_TrainingKit\Project Outputs for 2560_TrainingKit\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2560_TrainingKit\Release Files\2 - Board Assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8091ED9-D21C-409C-81E0-A7CCCC3CD9ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A1D01F-22E9-4F7F-AE56-18D3B99CCEBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11895" yWindow="-11910" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-4815" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Part List Report" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="471">
   <si>
     <t>Project Full Path</t>
   </si>
@@ -1161,17 +1161,291 @@
   </si>
   <si>
     <t>Bill of Materials</t>
+  </si>
+  <si>
+    <t>Unit Cost</t>
+  </si>
+  <si>
+    <t>C&amp;K</t>
+  </si>
+  <si>
+    <t>Abracon LLC</t>
+  </si>
+  <si>
+    <t>ABLS-16.000MHZ-16-A-4-H-T</t>
+  </si>
+  <si>
+    <t>Amphenol ICC (FCI)</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t>Microchip Technology</t>
+  </si>
+  <si>
+    <t>STMicroelectronics</t>
+  </si>
+  <si>
+    <t>Maxim Integrated</t>
+  </si>
+  <si>
+    <t>DS3231SN#T&amp;R</t>
+  </si>
+  <si>
+    <t>ON Semiconductor</t>
+  </si>
+  <si>
+    <t>CTS Electrocomponents</t>
+  </si>
+  <si>
+    <t>218-4LPSTR</t>
+  </si>
+  <si>
+    <t>Kingbright</t>
+  </si>
+  <si>
+    <t>SA05-11SRWA</t>
+  </si>
+  <si>
+    <t>Hirose Electric Co Ltd</t>
+  </si>
+  <si>
+    <t>Bourns Inc.</t>
+  </si>
+  <si>
+    <t>3296W-1-103</t>
+  </si>
+  <si>
+    <t>TE Connectivity Potter &amp; Brumfield Relays</t>
+  </si>
+  <si>
+    <t>ORWH-SH-105D1F,000</t>
+  </si>
+  <si>
+    <t>Stackpole Electronics Inc</t>
+  </si>
+  <si>
+    <t>RNCP0805FTD33R2</t>
+  </si>
+  <si>
+    <t>KOA Speer Electronics, Inc.</t>
+  </si>
+  <si>
+    <t>SG73S2ATTD103J</t>
+  </si>
+  <si>
+    <t>SG73S2ATTD1501F</t>
+  </si>
+  <si>
+    <t>RK73H2ATTD2200F</t>
+  </si>
+  <si>
+    <t>Vishay Dale</t>
+  </si>
+  <si>
+    <t>RCS08052K00FKEA</t>
+  </si>
+  <si>
+    <t>RNCS0805BKE1K00</t>
+  </si>
+  <si>
+    <t>TE Connectivity Passive Product</t>
+  </si>
+  <si>
+    <t>CPF0805B10KE</t>
+  </si>
+  <si>
+    <t>Panasonic Electronic Components</t>
+  </si>
+  <si>
+    <t>ERJ-6ENF2200V</t>
+  </si>
+  <si>
+    <t>Yageo</t>
+  </si>
+  <si>
+    <t>RC0805FR-07330RL</t>
+  </si>
+  <si>
+    <t>RT0805BRD0743KL</t>
+  </si>
+  <si>
+    <t>CRCW0805470RFKEAHP</t>
+  </si>
+  <si>
+    <t>RCS0805100KFKEA</t>
+  </si>
+  <si>
+    <t>RNCP0805FTD1K00</t>
+  </si>
+  <si>
+    <t>ERJ-6GEYJ331V</t>
+  </si>
+  <si>
+    <t>ERJ-PB6D3001V</t>
+  </si>
+  <si>
+    <t>RC0805FR-074K7P</t>
+  </si>
+  <si>
+    <t>RC0805JR-0722RL</t>
+  </si>
+  <si>
+    <t>RT0805DRD0710KL</t>
+  </si>
+  <si>
+    <t>TT Electronics/BI</t>
+  </si>
+  <si>
+    <t>P160KN2-0QA25B10K</t>
+  </si>
+  <si>
+    <t>WP7113ND</t>
+  </si>
+  <si>
+    <t>Lumex Opto/Components Inc.</t>
+  </si>
+  <si>
+    <t>LCM-S01602DTR/C</t>
+  </si>
+  <si>
+    <t>SRR1280-330M</t>
+  </si>
+  <si>
+    <t>Adafruit Industries LLC</t>
+  </si>
+  <si>
+    <t>TE Connectivity AMP Connectors</t>
+  </si>
+  <si>
+    <t>Amphenol ICC (Commercial Products)</t>
+  </si>
+  <si>
+    <t>G800W306018EU</t>
+  </si>
+  <si>
+    <t>67997-106HLF</t>
+  </si>
+  <si>
+    <t>Sullins Connector Solutions</t>
+  </si>
+  <si>
+    <t>PPPC082LFBN-RC</t>
+  </si>
+  <si>
+    <t>TDK Corporation</t>
+  </si>
+  <si>
+    <t>Seeed Technology Co., Ltd</t>
+  </si>
+  <si>
+    <t>CUI Devices</t>
+  </si>
+  <si>
+    <t>Lite-On Inc.</t>
+  </si>
+  <si>
+    <t>Vishay General Semiconductor - Diodes Division</t>
+  </si>
+  <si>
+    <t>SunLED</t>
+  </si>
+  <si>
+    <t>XZMDK55W-A2RT</t>
+  </si>
+  <si>
+    <t>Everlight Electronics Co Ltd</t>
+  </si>
+  <si>
+    <t>QTLP630C4TR</t>
+  </si>
+  <si>
+    <t>SMC Diode Solutions</t>
+  </si>
+  <si>
+    <t>APTL3216SURCK-01</t>
+  </si>
+  <si>
+    <t>Diodes Incorporated</t>
+  </si>
+  <si>
+    <t>Nichicon</t>
+  </si>
+  <si>
+    <t>UUQ1A101MCL1GB</t>
+  </si>
+  <si>
+    <t>KEMET</t>
+  </si>
+  <si>
+    <t>C0805C300M3GAC7800</t>
+  </si>
+  <si>
+    <t>EEE-FK1V221GP</t>
+  </si>
+  <si>
+    <t>AVX Corporation</t>
+  </si>
+  <si>
+    <t>F950G337KTAAQ2</t>
+  </si>
+  <si>
+    <t>0805YD105KAT4A</t>
+  </si>
+  <si>
+    <t>T494B107M006AT</t>
+  </si>
+  <si>
+    <t>Johanson Dielectrics Inc.</t>
+  </si>
+  <si>
+    <t>160R15W104KV4T</t>
+  </si>
+  <si>
+    <t>UUR1E221MNL6GS</t>
+  </si>
+  <si>
+    <t>UWZ1H101MCL1GS</t>
+  </si>
+  <si>
+    <t>08051A220GAT2A</t>
+  </si>
+  <si>
+    <t>AC0805KKX8R9BB104</t>
+  </si>
+  <si>
+    <t>Knowles Novacap</t>
+  </si>
+  <si>
+    <t>0805BW106K160NGT</t>
+  </si>
+  <si>
+    <t>PUI Audio, Inc.</t>
+  </si>
+  <si>
+    <t>AT-1224-TWT-5V-2-R</t>
+  </si>
+  <si>
+    <t>MPD (Memory Protection Devices)</t>
+  </si>
+  <si>
+    <t>BS-7</t>
+  </si>
+  <si>
+    <t>ABLS-12.000MHZ-30-A-4-H-T</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-C09]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
+    <numFmt numFmtId="167" formatCode="[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1302,8 +1576,30 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1355,6 +1651,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1733,7 +2035,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1803,9 +2105,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1995,11 +2294,41 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="32" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="9" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="8" borderId="26" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2018,29 +2347,32 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="24" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="23" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2509,8 +2841,8 @@
   </sheetPr>
   <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M93" sqref="M93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2522,61 +2854,61 @@
     <col min="5" max="5" width="28.7109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="40.7109375" style="3" customWidth="1"/>
     <col min="7" max="9" width="30.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="26.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.7109375" style="35" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="40" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" style="40" customWidth="1"/>
-    <col min="14" max="14" width="8" style="40" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" style="42" customWidth="1"/>
+    <col min="12" max="12" width="11" style="109" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="39" customWidth="1"/>
+    <col min="14" max="14" width="8" style="39" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" style="41" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58"/>
-      <c r="B1" s="53"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="46"/>
+      <c r="A1" s="57"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="45"/>
     </row>
     <row r="2" spans="1:15" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61"/>
+      <c r="A2" s="60"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="99" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="48"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="47"/>
     </row>
     <row r="3" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="61"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="13"/>
-      <c r="E3" s="100" t="s">
+      <c r="E3" s="93" t="s">
         <v>27</v>
       </c>
       <c r="G3" s="24"/>
@@ -2586,2931 +2918,3642 @@
       <c r="J3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="67"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="41"/>
+      <c r="K3" s="66"/>
+      <c r="M3" s="40"/>
     </row>
     <row r="4" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="61"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="13"/>
-      <c r="E4" s="101" t="s">
+      <c r="E4" s="94" t="s">
         <v>27</v>
       </c>
       <c r="G4" s="24"/>
-      <c r="H4" s="32"/>
+      <c r="H4" s="31"/>
       <c r="J4" s="24"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="42"/>
+      <c r="K4" s="67"/>
     </row>
     <row r="5" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="61"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="13"/>
-      <c r="E5" s="102" t="s">
+      <c r="E5" s="95" t="s">
         <v>28</v>
       </c>
       <c r="G5" s="24"/>
-      <c r="H5" s="93"/>
-      <c r="J5" s="31" t="s">
+      <c r="H5" s="91"/>
+      <c r="J5" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="68"/>
-      <c r="L5" s="42"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="61"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="15"/>
       <c r="G6" s="12"/>
-      <c r="H6" s="93"/>
+      <c r="H6" s="91"/>
       <c r="J6" s="11"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="42"/>
+      <c r="K6" s="67"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="61"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="103" t="s">
+      <c r="E7" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="103" t="s">
+      <c r="F7" s="96" t="s">
         <v>30</v>
       </c>
       <c r="G7" s="12"/>
-      <c r="H7" s="93"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="42"/>
+      <c r="H7" s="91"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="61"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="19">
         <f ca="1">TODAY()</f>
-        <v>44268</v>
+        <v>44278</v>
       </c>
       <c r="F8" s="20">
         <f ca="1">NOW()</f>
-        <v>44268.832805902777</v>
+        <v>44278.693623611114</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="18"/>
       <c r="I8" s="14"/>
       <c r="J8" s="24"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="42"/>
+      <c r="K8" s="67"/>
     </row>
     <row r="9" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="62"/>
-      <c r="B9" s="56" t="s">
+      <c r="A9" s="61"/>
+      <c r="B9" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="F9" s="57" t="s">
+      <c r="F9" s="56" t="s">
         <v>189</v>
       </c>
-      <c r="G9" s="57" t="s">
+      <c r="G9" s="56" t="s">
         <v>271</v>
       </c>
-      <c r="H9" s="57" t="s">
+      <c r="H9" s="56" t="s">
         <v>272</v>
       </c>
-      <c r="I9" s="57" t="s">
+      <c r="I9" s="56" t="s">
         <v>273</v>
       </c>
-      <c r="J9" s="57" t="s">
+      <c r="J9" s="56" t="s">
         <v>289</v>
       </c>
-      <c r="K9" s="69" t="s">
+      <c r="K9" s="68" t="s">
         <v>294</v>
       </c>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-    </row>
-    <row r="10" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="63"/>
-      <c r="B10" s="86">
-        <f>ROW(B10) - ROW($B$9)</f>
+      <c r="L9" s="112" t="s">
+        <v>380</v>
+      </c>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+    </row>
+    <row r="10" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="62"/>
+      <c r="B10" s="85">
+        <f t="shared" ref="B10:B41" si="0">ROW(B10) - ROW($B$9)</f>
         <v>1</v>
       </c>
-      <c r="C10" s="87" t="s">
+      <c r="C10" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="88">
+      <c r="D10" s="101">
         <v>1</v>
       </c>
-      <c r="E10" s="87" t="s">
+      <c r="E10" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="F10" s="87" t="s">
+      <c r="F10" s="86" t="s">
         <v>190</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="88" t="s">
+      <c r="G10" s="86" t="s">
+        <v>382</v>
+      </c>
+      <c r="H10" s="86" t="s">
+        <v>470</v>
+      </c>
+      <c r="I10" s="87" t="s">
         <v>274</v>
       </c>
-      <c r="J10" s="88" t="s">
+      <c r="J10" s="87" t="s">
         <v>290</v>
       </c>
-      <c r="K10" s="89" t="s">
+      <c r="K10" s="88" t="s">
         <v>295</v>
       </c>
-      <c r="L10" s="25"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="51"/>
-    </row>
-    <row r="11" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="63"/>
-      <c r="B11" s="90">
-        <f>ROW(B11) - ROW($B$9)</f>
+      <c r="L10" s="110">
+        <v>0.25</v>
+      </c>
+      <c r="M10" s="100">
+        <f>D10*L10</f>
+        <v>0.25</v>
+      </c>
+      <c r="N10" s="49"/>
+      <c r="O10" s="50"/>
+    </row>
+    <row r="11" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="62"/>
+      <c r="B11" s="89">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C11" s="83" t="s">
+      <c r="C11" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="92">
+      <c r="D11" s="102">
         <v>1</v>
       </c>
-      <c r="E11" s="84" t="s">
+      <c r="E11" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="F11" s="84" t="s">
+      <c r="F11" s="83" t="s">
         <v>191</v>
       </c>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="85" t="s">
+      <c r="G11" s="83" t="s">
+        <v>382</v>
+      </c>
+      <c r="H11" s="83" t="s">
+        <v>383</v>
+      </c>
+      <c r="I11" s="84" t="s">
         <v>274</v>
       </c>
-      <c r="J11" s="85" t="s">
+      <c r="J11" s="84" t="s">
         <v>290</v>
       </c>
-      <c r="K11" s="91" t="s">
+      <c r="K11" s="90" t="s">
         <v>296</v>
       </c>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="51"/>
-    </row>
-    <row r="12" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="63"/>
-      <c r="B12" s="86">
-        <f>ROW(B12) - ROW($B$9)</f>
+      <c r="L11" s="110">
+        <v>0.11827</v>
+      </c>
+      <c r="M11" s="100">
+        <f t="shared" ref="M11:M74" si="1">D11*L11</f>
+        <v>0.11827</v>
+      </c>
+      <c r="N11" s="51"/>
+      <c r="O11" s="50"/>
+    </row>
+    <row r="12" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="62"/>
+      <c r="B12" s="85">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C12" s="87" t="s">
+      <c r="C12" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="88">
+      <c r="D12" s="101">
         <v>1</v>
       </c>
-      <c r="E12" s="87" t="s">
+      <c r="E12" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="87" t="s">
+      <c r="F12" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="88" t="s">
+      <c r="G12" s="86" t="s">
+        <v>384</v>
+      </c>
+      <c r="H12" s="86" t="s">
+        <v>119</v>
+      </c>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87" t="s">
         <v>290</v>
       </c>
-      <c r="K12" s="89" t="s">
+      <c r="K12" s="88" t="s">
         <v>297</v>
       </c>
-      <c r="L12" s="25"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="51"/>
+      <c r="L12" s="113">
+        <v>1.06</v>
+      </c>
+      <c r="M12" s="100">
+        <f t="shared" si="1"/>
+        <v>1.06</v>
+      </c>
+      <c r="N12" s="49"/>
+      <c r="O12" s="50"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="63"/>
-      <c r="B13" s="90">
-        <f>ROW(B13) - ROW($B$9)</f>
+      <c r="A13" s="62"/>
+      <c r="B13" s="89">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="83" t="s">
+      <c r="C13" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="92">
+      <c r="D13" s="102">
         <v>1</v>
       </c>
-      <c r="E13" s="84" t="s">
+      <c r="E13" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="F13" s="84" t="s">
+      <c r="F13" s="83" t="s">
         <v>193</v>
       </c>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="85" t="s">
+      <c r="G13" s="83" t="s">
+        <v>385</v>
+      </c>
+      <c r="H13" s="83" t="s">
+        <v>120</v>
+      </c>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84" t="s">
         <v>291</v>
       </c>
-      <c r="K13" s="91" t="s">
+      <c r="K13" s="90" t="s">
         <v>298</v>
       </c>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="51"/>
+      <c r="L13" s="110">
+        <v>0.43</v>
+      </c>
+      <c r="M13" s="100">
+        <f t="shared" si="1"/>
+        <v>0.43</v>
+      </c>
+      <c r="N13" s="51"/>
+      <c r="O13" s="50"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="63"/>
-      <c r="B14" s="86">
-        <f>ROW(B14) - ROW($B$9)</f>
+      <c r="A14" s="62"/>
+      <c r="B14" s="85">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="87" t="s">
+      <c r="C14" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="88">
+      <c r="D14" s="101">
         <v>1</v>
       </c>
-      <c r="E14" s="87" t="s">
+      <c r="E14" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="F14" s="87" t="s">
+      <c r="F14" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88" t="s">
+      <c r="G14" s="86" t="s">
+        <v>386</v>
+      </c>
+      <c r="H14" s="86" t="s">
+        <v>121</v>
+      </c>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87" t="s">
         <v>291</v>
       </c>
-      <c r="K14" s="89" t="s">
+      <c r="K14" s="88" t="s">
         <v>299</v>
       </c>
-      <c r="L14" s="25"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="51"/>
+      <c r="L14" s="110">
+        <v>1.93</v>
+      </c>
+      <c r="M14" s="100">
+        <f t="shared" si="1"/>
+        <v>1.93</v>
+      </c>
+      <c r="N14" s="49"/>
+      <c r="O14" s="50"/>
     </row>
     <row r="15" spans="1:15" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="63"/>
-      <c r="B15" s="90">
-        <f>ROW(B15) - ROW($B$9)</f>
+      <c r="A15" s="62"/>
+      <c r="B15" s="89">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="83" t="s">
+      <c r="C15" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="92">
+      <c r="D15" s="102">
         <v>1</v>
       </c>
-      <c r="E15" s="84" t="s">
+      <c r="E15" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="F15" s="84" t="s">
+      <c r="F15" s="83" t="s">
         <v>195</v>
       </c>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85" t="s">
+      <c r="G15" s="83" t="s">
+        <v>387</v>
+      </c>
+      <c r="H15" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84" t="s">
         <v>291</v>
       </c>
-      <c r="K15" s="91" t="s">
+      <c r="K15" s="90" t="s">
         <v>300</v>
       </c>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="51"/>
+      <c r="L15" s="113">
+        <v>5.41</v>
+      </c>
+      <c r="M15" s="100">
+        <f t="shared" si="1"/>
+        <v>5.41</v>
+      </c>
+      <c r="N15" s="51"/>
+      <c r="O15" s="50"/>
     </row>
     <row r="16" spans="1:15" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="63"/>
-      <c r="B16" s="86">
-        <f>ROW(B16) - ROW($B$9)</f>
+      <c r="A16" s="62"/>
+      <c r="B16" s="85">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="87" t="s">
+      <c r="C16" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="88">
+      <c r="D16" s="101">
         <v>1</v>
       </c>
-      <c r="E16" s="87" t="s">
+      <c r="E16" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="F16" s="87" t="s">
+      <c r="F16" s="86" t="s">
         <v>196</v>
       </c>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="89" t="s">
+      <c r="G16" s="86" t="s">
+        <v>386</v>
+      </c>
+      <c r="H16" s="86" t="s">
+        <v>123</v>
+      </c>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="88" t="s">
         <v>301</v>
       </c>
-      <c r="L16" s="25"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="51"/>
+      <c r="L16" s="110">
+        <v>0.32</v>
+      </c>
+      <c r="M16" s="100">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="N16" s="49"/>
+      <c r="O16" s="50"/>
     </row>
     <row r="17" spans="1:15" s="2" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="63"/>
-      <c r="B17" s="90">
-        <f>ROW(B17) - ROW($B$9)</f>
+      <c r="A17" s="62"/>
+      <c r="B17" s="89">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="83" t="s">
+      <c r="C17" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="92">
+      <c r="D17" s="102">
         <v>1</v>
       </c>
-      <c r="E17" s="84" t="s">
+      <c r="E17" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="F17" s="84" t="s">
+      <c r="F17" s="83" t="s">
         <v>197</v>
       </c>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85" t="s">
+      <c r="G17" s="83" t="s">
+        <v>388</v>
+      </c>
+      <c r="H17" s="83" t="s">
+        <v>389</v>
+      </c>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84" t="s">
         <v>291</v>
       </c>
-      <c r="K17" s="91" t="s">
+      <c r="K17" s="90" t="s">
         <v>302</v>
       </c>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="51"/>
-    </row>
-    <row r="18" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="63"/>
-      <c r="B18" s="86">
-        <f>ROW(B18) - ROW($B$9)</f>
+      <c r="L17" s="110">
+        <v>8.82</v>
+      </c>
+      <c r="M17" s="100">
+        <f t="shared" si="1"/>
+        <v>8.82</v>
+      </c>
+      <c r="N17" s="51"/>
+      <c r="O17" s="50"/>
+    </row>
+    <row r="18" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="62"/>
+      <c r="B18" s="85">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="87" t="s">
+      <c r="C18" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="88">
+      <c r="D18" s="101">
         <v>1</v>
       </c>
-      <c r="E18" s="87" t="s">
+      <c r="E18" s="86" t="s">
         <v>125</v>
       </c>
-      <c r="F18" s="87" t="s">
+      <c r="F18" s="86" t="s">
         <v>198</v>
       </c>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="88" t="s">
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87" t="s">
         <v>291</v>
       </c>
-      <c r="K18" s="89" t="s">
+      <c r="K18" s="88" t="s">
         <v>303</v>
       </c>
-      <c r="L18" s="25"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="51"/>
-    </row>
-    <row r="19" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="63"/>
-      <c r="B19" s="90">
-        <f>ROW(B19) - ROW($B$9)</f>
+      <c r="L18" s="114"/>
+      <c r="M18" s="100">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="49"/>
+      <c r="O18" s="50"/>
+    </row>
+    <row r="19" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="62"/>
+      <c r="B19" s="89">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="83" t="s">
+      <c r="C19" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="92">
+      <c r="D19" s="102">
         <v>1</v>
       </c>
-      <c r="E19" s="84" t="s">
+      <c r="E19" s="83" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="84" t="s">
+      <c r="F19" s="83" t="s">
         <v>199</v>
       </c>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="85" t="s">
+      <c r="G19" s="83" t="s">
+        <v>386</v>
+      </c>
+      <c r="H19" s="83" t="s">
+        <v>126</v>
+      </c>
+      <c r="I19" s="84"/>
+      <c r="J19" s="84" t="s">
         <v>291</v>
       </c>
-      <c r="K19" s="91" t="s">
+      <c r="K19" s="90" t="s">
         <v>304</v>
       </c>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="51"/>
-    </row>
-    <row r="20" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="63"/>
-      <c r="B20" s="86">
-        <f>ROW(B20) - ROW($B$9)</f>
+      <c r="L19" s="110">
+        <v>1.96</v>
+      </c>
+      <c r="M19" s="100">
+        <f t="shared" si="1"/>
+        <v>1.96</v>
+      </c>
+      <c r="N19" s="51"/>
+      <c r="O19" s="50"/>
+    </row>
+    <row r="20" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="62"/>
+      <c r="B20" s="85">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="87" t="s">
+      <c r="C20" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="88">
+      <c r="D20" s="101">
         <v>1</v>
       </c>
-      <c r="E20" s="87" t="s">
+      <c r="E20" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="F20" s="87" t="s">
+      <c r="F20" s="86" t="s">
         <v>200</v>
       </c>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="88" t="s">
+      <c r="G20" s="86" t="s">
+        <v>385</v>
+      </c>
+      <c r="H20" s="86" t="s">
+        <v>127</v>
+      </c>
+      <c r="I20" s="87"/>
+      <c r="J20" s="87" t="s">
         <v>292</v>
       </c>
-      <c r="K20" s="89" t="s">
+      <c r="K20" s="88" t="s">
         <v>127</v>
       </c>
-      <c r="L20" s="25"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="51"/>
-    </row>
-    <row r="21" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="63"/>
-      <c r="B21" s="90">
-        <f>ROW(B21) - ROW($B$9)</f>
+      <c r="L20" s="110">
+        <v>2.97</v>
+      </c>
+      <c r="M20" s="100">
+        <f t="shared" si="1"/>
+        <v>2.97</v>
+      </c>
+      <c r="N20" s="49"/>
+      <c r="O20" s="50"/>
+    </row>
+    <row r="21" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="62"/>
+      <c r="B21" s="89">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="83" t="s">
+      <c r="C21" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="92">
+      <c r="D21" s="102">
         <v>1</v>
       </c>
-      <c r="E21" s="84" t="s">
+      <c r="E21" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="F21" s="84" t="s">
+      <c r="F21" s="83" t="s">
         <v>201</v>
       </c>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="85" t="s">
+      <c r="G21" s="83" t="s">
+        <v>390</v>
+      </c>
+      <c r="H21" s="83" t="s">
+        <v>128</v>
+      </c>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84" t="s">
         <v>291</v>
       </c>
-      <c r="K21" s="91" t="s">
+      <c r="K21" s="90" t="s">
         <v>305</v>
       </c>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="51"/>
+      <c r="L21" s="113">
+        <v>2.37</v>
+      </c>
+      <c r="M21" s="100">
+        <f t="shared" si="1"/>
+        <v>2.37</v>
+      </c>
+      <c r="N21" s="51"/>
+      <c r="O21" s="50"/>
     </row>
     <row r="22" spans="1:15" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="63"/>
-      <c r="B22" s="86">
-        <f>ROW(B22) - ROW($B$9)</f>
+      <c r="A22" s="62"/>
+      <c r="B22" s="85">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C22" s="87" t="s">
+      <c r="C22" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="88">
+      <c r="D22" s="101">
         <v>1</v>
       </c>
-      <c r="E22" s="87" t="s">
+      <c r="E22" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F22" s="87" t="s">
+      <c r="F22" s="86" t="s">
         <v>202</v>
       </c>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="88" t="s">
+      <c r="G22" s="86" t="s">
+        <v>385</v>
+      </c>
+      <c r="H22" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="I22" s="87"/>
+      <c r="J22" s="87" t="s">
         <v>291</v>
       </c>
-      <c r="K22" s="89" t="s">
+      <c r="K22" s="88" t="s">
         <v>306</v>
       </c>
-      <c r="L22" s="25"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="51"/>
-    </row>
-    <row r="23" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="63"/>
-      <c r="B23" s="90">
-        <f>ROW(B23) - ROW($B$9)</f>
+      <c r="L22" s="110">
+        <v>0.36</v>
+      </c>
+      <c r="M22" s="100">
+        <f t="shared" si="1"/>
+        <v>0.36</v>
+      </c>
+      <c r="N22" s="49"/>
+      <c r="O22" s="50"/>
+    </row>
+    <row r="23" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="62"/>
+      <c r="B23" s="89">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C23" s="83" t="s">
+      <c r="C23" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="92">
+      <c r="D23" s="102">
         <v>1</v>
       </c>
-      <c r="E23" s="84" t="s">
+      <c r="E23" s="83" t="s">
         <v>130</v>
       </c>
-      <c r="F23" s="84" t="s">
+      <c r="F23" s="83" t="s">
         <v>203</v>
       </c>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="85" t="s">
+      <c r="G23" s="83" t="s">
+        <v>386</v>
+      </c>
+      <c r="H23" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="I23" s="84"/>
+      <c r="J23" s="84" t="s">
         <v>291</v>
       </c>
-      <c r="K23" s="91" t="s">
+      <c r="K23" s="90" t="s">
         <v>307</v>
       </c>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="51"/>
-    </row>
-    <row r="24" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="63"/>
-      <c r="B24" s="86">
-        <f>ROW(B24) - ROW($B$9)</f>
+      <c r="L23" s="110">
+        <v>13.85</v>
+      </c>
+      <c r="M23" s="100">
+        <f t="shared" si="1"/>
+        <v>13.85</v>
+      </c>
+      <c r="N23" s="51"/>
+      <c r="O23" s="50"/>
+    </row>
+    <row r="24" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="62"/>
+      <c r="B24" s="85">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C24" s="87" t="s">
+      <c r="C24" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="88">
+      <c r="D24" s="101">
         <v>3</v>
       </c>
-      <c r="E24" s="87" t="s">
+      <c r="E24" s="86" t="s">
         <v>131</v>
       </c>
-      <c r="F24" s="87" t="s">
+      <c r="F24" s="86" t="s">
         <v>204</v>
       </c>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88" t="s">
+      <c r="G24" s="86" t="s">
+        <v>391</v>
+      </c>
+      <c r="H24" s="86" t="s">
+        <v>131</v>
+      </c>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87" t="s">
         <v>290</v>
       </c>
-      <c r="K24" s="89" t="s">
+      <c r="K24" s="88" t="s">
         <v>308</v>
       </c>
-      <c r="L24" s="25"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="51"/>
-    </row>
-    <row r="25" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="63"/>
-      <c r="B25" s="90">
-        <f>ROW(B25) - ROW($B$9)</f>
+      <c r="L24" s="110">
+        <v>1.05</v>
+      </c>
+      <c r="M24" s="100">
+        <f t="shared" si="1"/>
+        <v>3.1500000000000004</v>
+      </c>
+      <c r="N24" s="49"/>
+      <c r="O24" s="50"/>
+    </row>
+    <row r="25" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="62"/>
+      <c r="B25" s="89">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C25" s="83" t="s">
+      <c r="C25" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="92">
+      <c r="D25" s="102">
         <v>2</v>
       </c>
-      <c r="E25" s="84" t="s">
+      <c r="E25" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="F25" s="84" t="s">
+      <c r="F25" s="83" t="s">
         <v>204</v>
       </c>
-      <c r="G25" s="84"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="85" t="s">
+      <c r="G25" s="83" t="s">
+        <v>391</v>
+      </c>
+      <c r="H25" s="83" t="s">
+        <v>392</v>
+      </c>
+      <c r="I25" s="84"/>
+      <c r="J25" s="84" t="s">
         <v>290</v>
       </c>
-      <c r="K25" s="91" t="s">
+      <c r="K25" s="90" t="s">
         <v>309</v>
       </c>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="51"/>
-    </row>
-    <row r="26" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="63"/>
-      <c r="B26" s="86">
-        <f>ROW(B26) - ROW($B$9)</f>
+      <c r="L25" s="110">
+        <v>1.2</v>
+      </c>
+      <c r="M25" s="100">
+        <f t="shared" si="1"/>
+        <v>2.4</v>
+      </c>
+      <c r="N25" s="51"/>
+      <c r="O25" s="50"/>
+    </row>
+    <row r="26" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="62"/>
+      <c r="B26" s="85">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C26" s="87" t="s">
+      <c r="C26" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="88">
+      <c r="D26" s="101">
         <v>1</v>
       </c>
-      <c r="E26" s="87" t="s">
+      <c r="E26" s="86" t="s">
         <v>133</v>
       </c>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="89"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="51"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="87"/>
+      <c r="K26" s="88"/>
+      <c r="L26" s="114"/>
+      <c r="M26" s="100">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="49"/>
+      <c r="O26" s="50"/>
     </row>
     <row r="27" spans="1:15" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="63"/>
-      <c r="B27" s="90">
-        <f>ROW(B27) - ROW($B$9)</f>
+      <c r="A27" s="62"/>
+      <c r="B27" s="89">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C27" s="83" t="s">
+      <c r="C27" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="92">
+      <c r="D27" s="102">
         <v>1</v>
       </c>
-      <c r="E27" s="84" t="s">
+      <c r="E27" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="F27" s="84" t="s">
+      <c r="F27" s="83" t="s">
         <v>205</v>
       </c>
-      <c r="G27" s="84"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="85" t="s">
+      <c r="G27" s="83" t="s">
+        <v>393</v>
+      </c>
+      <c r="H27" s="83" t="s">
+        <v>394</v>
+      </c>
+      <c r="I27" s="84"/>
+      <c r="J27" s="84" t="s">
         <v>291</v>
       </c>
-      <c r="K27" s="91" t="s">
+      <c r="K27" s="90" t="s">
         <v>310</v>
       </c>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="51"/>
-    </row>
-    <row r="28" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="63"/>
-      <c r="B28" s="86">
-        <f>ROW(B28) - ROW($B$9)</f>
+      <c r="L27" s="110">
+        <v>1.96</v>
+      </c>
+      <c r="M27" s="100">
+        <f t="shared" si="1"/>
+        <v>1.96</v>
+      </c>
+      <c r="N27" s="51"/>
+      <c r="O27" s="50"/>
+    </row>
+    <row r="28" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="62"/>
+      <c r="B28" s="85">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C28" s="87" t="s">
+      <c r="C28" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="88">
+      <c r="D28" s="101">
         <v>1</v>
       </c>
-      <c r="E28" s="87" t="s">
+      <c r="E28" s="86" t="s">
         <v>135</v>
       </c>
-      <c r="F28" s="87" t="s">
+      <c r="F28" s="86" t="s">
         <v>206</v>
       </c>
-      <c r="G28" s="87"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="88" t="s">
+      <c r="G28" s="86" t="s">
+        <v>395</v>
+      </c>
+      <c r="H28" s="86" t="s">
+        <v>135</v>
+      </c>
+      <c r="I28" s="87"/>
+      <c r="J28" s="87" t="s">
         <v>290</v>
       </c>
-      <c r="K28" s="89" t="s">
+      <c r="K28" s="88" t="s">
         <v>311</v>
       </c>
-      <c r="L28" s="25"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="51"/>
-    </row>
-    <row r="29" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="63"/>
-      <c r="B29" s="90">
-        <f>ROW(B29) - ROW($B$9)</f>
+      <c r="L28" s="110">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M28" s="100">
+        <f t="shared" si="1"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N28" s="49"/>
+      <c r="O28" s="50"/>
+    </row>
+    <row r="29" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="62"/>
+      <c r="B29" s="89">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C29" s="83" t="s">
+      <c r="C29" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="92">
+      <c r="D29" s="102">
         <v>1</v>
       </c>
-      <c r="E29" s="84" t="s">
+      <c r="E29" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="F29" s="84" t="s">
+      <c r="F29" s="83" t="s">
         <v>207</v>
       </c>
-      <c r="G29" s="84"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="85"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="91" t="s">
+      <c r="G29" s="83" t="s">
+        <v>396</v>
+      </c>
+      <c r="H29" s="83" t="s">
+        <v>397</v>
+      </c>
+      <c r="I29" s="84"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="90" t="s">
         <v>312</v>
       </c>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="51"/>
+      <c r="L29" s="110">
+        <v>4.43</v>
+      </c>
+      <c r="M29" s="100">
+        <f t="shared" si="1"/>
+        <v>4.43</v>
+      </c>
+      <c r="N29" s="51"/>
+      <c r="O29" s="50"/>
     </row>
     <row r="30" spans="1:15" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="63"/>
-      <c r="B30" s="86">
-        <f>ROW(B30) - ROW($B$9)</f>
+      <c r="A30" s="62"/>
+      <c r="B30" s="85">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C30" s="87" t="s">
+      <c r="C30" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="88">
+      <c r="D30" s="101">
         <v>1</v>
       </c>
-      <c r="E30" s="87" t="s">
+      <c r="E30" s="86" t="s">
         <v>137</v>
       </c>
-      <c r="F30" s="87" t="s">
+      <c r="F30" s="86" t="s">
         <v>208</v>
       </c>
-      <c r="G30" s="87"/>
-      <c r="H30" s="87"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="88" t="s">
+      <c r="G30" s="86" t="s">
+        <v>398</v>
+      </c>
+      <c r="H30" s="86" t="s">
+        <v>399</v>
+      </c>
+      <c r="I30" s="87"/>
+      <c r="J30" s="87" t="s">
         <v>291</v>
       </c>
-      <c r="K30" s="89" t="s">
+      <c r="K30" s="88" t="s">
         <v>313</v>
       </c>
-      <c r="L30" s="25"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="51"/>
-    </row>
-    <row r="31" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="63"/>
-      <c r="B31" s="90">
-        <f>ROW(B31) - ROW($B$9)</f>
+      <c r="L30" s="110">
+        <v>1.36</v>
+      </c>
+      <c r="M30" s="100">
+        <f t="shared" si="1"/>
+        <v>1.36</v>
+      </c>
+      <c r="N30" s="49"/>
+      <c r="O30" s="50"/>
+    </row>
+    <row r="31" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="62"/>
+      <c r="B31" s="89">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C31" s="83" t="s">
+      <c r="C31" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="92">
+      <c r="D31" s="102">
         <v>2</v>
       </c>
-      <c r="E31" s="84" t="s">
+      <c r="E31" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="F31" s="84" t="s">
+      <c r="F31" s="83" t="s">
         <v>209</v>
       </c>
-      <c r="G31" s="84"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="85" t="s">
+      <c r="G31" s="83" t="s">
+        <v>400</v>
+      </c>
+      <c r="H31" s="83" t="s">
+        <v>401</v>
+      </c>
+      <c r="I31" s="84" t="s">
         <v>275</v>
       </c>
-      <c r="J31" s="85" t="s">
+      <c r="J31" s="84" t="s">
         <v>290</v>
       </c>
-      <c r="K31" s="91" t="s">
+      <c r="K31" s="90" t="s">
         <v>314</v>
       </c>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="51"/>
-    </row>
-    <row r="32" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="63"/>
-      <c r="B32" s="86">
-        <f>ROW(B32) - ROW($B$9)</f>
+      <c r="L31" s="110">
+        <v>0.1</v>
+      </c>
+      <c r="M31" s="100">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="N31" s="51"/>
+      <c r="O31" s="50"/>
+    </row>
+    <row r="32" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="62"/>
+      <c r="B32" s="85">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C32" s="87" t="s">
+      <c r="C32" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="88">
+      <c r="D32" s="101">
         <v>1</v>
       </c>
-      <c r="E32" s="87" t="s">
+      <c r="E32" s="86" t="s">
         <v>139</v>
       </c>
-      <c r="F32" s="87" t="s">
+      <c r="F32" s="86" t="s">
         <v>210</v>
       </c>
-      <c r="G32" s="87"/>
-      <c r="H32" s="87"/>
-      <c r="I32" s="88" t="s">
+      <c r="G32" s="86" t="s">
+        <v>402</v>
+      </c>
+      <c r="H32" s="86" t="s">
+        <v>403</v>
+      </c>
+      <c r="I32" s="87" t="s">
         <v>275</v>
       </c>
-      <c r="J32" s="88" t="s">
+      <c r="J32" s="87" t="s">
         <v>290</v>
       </c>
-      <c r="K32" s="89" t="s">
+      <c r="K32" s="88" t="s">
         <v>315</v>
       </c>
-      <c r="L32" s="25"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="51"/>
-    </row>
-    <row r="33" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="63"/>
-      <c r="B33" s="90">
-        <f>ROW(B33) - ROW($B$9)</f>
+      <c r="L32" s="110">
+        <v>0.13</v>
+      </c>
+      <c r="M32" s="100">
+        <f t="shared" si="1"/>
+        <v>0.13</v>
+      </c>
+      <c r="N32" s="49"/>
+      <c r="O32" s="50"/>
+    </row>
+    <row r="33" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="62"/>
+      <c r="B33" s="89">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C33" s="83" t="s">
+      <c r="C33" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="92">
+      <c r="D33" s="102">
         <v>2</v>
       </c>
-      <c r="E33" s="84" t="s">
+      <c r="E33" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="F33" s="84" t="s">
+      <c r="F33" s="83" t="s">
         <v>211</v>
       </c>
-      <c r="G33" s="84"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="85" t="s">
+      <c r="G33" s="83" t="s">
+        <v>402</v>
+      </c>
+      <c r="H33" s="83" t="s">
+        <v>404</v>
+      </c>
+      <c r="I33" s="84" t="s">
         <v>275</v>
       </c>
-      <c r="J33" s="85" t="s">
+      <c r="J33" s="84" t="s">
         <v>290</v>
       </c>
-      <c r="K33" s="91" t="s">
+      <c r="K33" s="90" t="s">
         <v>316</v>
       </c>
-      <c r="L33" s="52"/>
-      <c r="M33" s="52"/>
-      <c r="N33" s="52"/>
-      <c r="O33" s="51"/>
-    </row>
-    <row r="34" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="63"/>
-      <c r="B34" s="86">
-        <f>ROW(B34) - ROW($B$9)</f>
+      <c r="L33" s="110">
+        <v>0.19</v>
+      </c>
+      <c r="M33" s="100">
+        <f t="shared" si="1"/>
+        <v>0.38</v>
+      </c>
+      <c r="N33" s="51"/>
+      <c r="O33" s="50"/>
+    </row>
+    <row r="34" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="62"/>
+      <c r="B34" s="85">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C34" s="87" t="s">
+      <c r="C34" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="88">
+      <c r="D34" s="101">
         <v>2</v>
       </c>
-      <c r="E34" s="87" t="s">
+      <c r="E34" s="86" t="s">
         <v>141</v>
       </c>
-      <c r="F34" s="87" t="s">
+      <c r="F34" s="86" t="s">
         <v>212</v>
       </c>
-      <c r="G34" s="87"/>
-      <c r="H34" s="87"/>
-      <c r="I34" s="88" t="s">
+      <c r="G34" s="86" t="s">
+        <v>402</v>
+      </c>
+      <c r="H34" s="86" t="s">
+        <v>405</v>
+      </c>
+      <c r="I34" s="87" t="s">
         <v>275</v>
       </c>
-      <c r="J34" s="88" t="s">
+      <c r="J34" s="87" t="s">
         <v>290</v>
       </c>
-      <c r="K34" s="89" t="s">
+      <c r="K34" s="88" t="s">
         <v>317</v>
       </c>
-      <c r="L34" s="25"/>
-      <c r="M34" s="50"/>
-      <c r="N34" s="50"/>
-      <c r="O34" s="51"/>
-    </row>
-    <row r="35" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="63"/>
-      <c r="B35" s="90">
-        <f>ROW(B35) - ROW($B$9)</f>
+      <c r="L34" s="110">
+        <v>0.1</v>
+      </c>
+      <c r="M34" s="100">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="N34" s="49"/>
+      <c r="O34" s="50"/>
+    </row>
+    <row r="35" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="62"/>
+      <c r="B35" s="89">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C35" s="83" t="s">
+      <c r="C35" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="92">
+      <c r="D35" s="102">
         <v>1</v>
       </c>
-      <c r="E35" s="84" t="s">
+      <c r="E35" s="83" t="s">
         <v>142</v>
       </c>
-      <c r="F35" s="84" t="s">
+      <c r="F35" s="83" t="s">
         <v>213</v>
       </c>
-      <c r="G35" s="84"/>
-      <c r="H35" s="84"/>
-      <c r="I35" s="85" t="s">
+      <c r="G35" s="83" t="s">
+        <v>406</v>
+      </c>
+      <c r="H35" s="83" t="s">
+        <v>407</v>
+      </c>
+      <c r="I35" s="84" t="s">
         <v>275</v>
       </c>
-      <c r="J35" s="85" t="s">
+      <c r="J35" s="84" t="s">
         <v>290</v>
       </c>
-      <c r="K35" s="91" t="s">
+      <c r="K35" s="90" t="s">
         <v>318</v>
       </c>
-      <c r="L35" s="52"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="52"/>
-      <c r="O35" s="51"/>
-    </row>
-    <row r="36" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="63"/>
-      <c r="B36" s="86">
-        <f>ROW(B36) - ROW($B$9)</f>
+      <c r="L35" s="110">
+        <v>0.26</v>
+      </c>
+      <c r="M35" s="100">
+        <f t="shared" si="1"/>
+        <v>0.26</v>
+      </c>
+      <c r="N35" s="51"/>
+      <c r="O35" s="50"/>
+    </row>
+    <row r="36" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="62"/>
+      <c r="B36" s="85">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C36" s="87" t="s">
+      <c r="C36" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="D36" s="88">
+      <c r="D36" s="101">
         <v>2</v>
       </c>
-      <c r="E36" s="87" t="s">
+      <c r="E36" s="86" t="s">
         <v>143</v>
       </c>
-      <c r="F36" s="87" t="s">
+      <c r="F36" s="86" t="s">
         <v>214</v>
       </c>
-      <c r="G36" s="87"/>
-      <c r="H36" s="87"/>
-      <c r="I36" s="88" t="s">
+      <c r="G36" s="86" t="s">
+        <v>400</v>
+      </c>
+      <c r="H36" s="86" t="s">
+        <v>408</v>
+      </c>
+      <c r="I36" s="87" t="s">
         <v>275</v>
       </c>
-      <c r="J36" s="88" t="s">
+      <c r="J36" s="87" t="s">
         <v>290</v>
       </c>
-      <c r="K36" s="89" t="s">
+      <c r="K36" s="88" t="s">
         <v>319</v>
       </c>
-      <c r="L36" s="25"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="50"/>
-      <c r="O36" s="51"/>
-    </row>
-    <row r="37" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="63"/>
-      <c r="B37" s="90">
-        <f>ROW(B37) - ROW($B$9)</f>
+      <c r="L36" s="110">
+        <v>0.5</v>
+      </c>
+      <c r="M36" s="100">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N36" s="49"/>
+      <c r="O36" s="50"/>
+    </row>
+    <row r="37" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="62"/>
+      <c r="B37" s="89">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C37" s="83" t="s">
+      <c r="C37" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="92">
+      <c r="D37" s="102">
         <v>4</v>
       </c>
-      <c r="E37" s="84" t="s">
+      <c r="E37" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="F37" s="84" t="s">
+      <c r="F37" s="83" t="s">
         <v>215</v>
       </c>
-      <c r="G37" s="84"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="85" t="s">
+      <c r="G37" s="83" t="s">
+        <v>409</v>
+      </c>
+      <c r="H37" s="83" t="s">
+        <v>410</v>
+      </c>
+      <c r="I37" s="84" t="s">
         <v>275</v>
       </c>
-      <c r="J37" s="85" t="s">
+      <c r="J37" s="84" t="s">
         <v>290</v>
       </c>
-      <c r="K37" s="91" t="s">
+      <c r="K37" s="90" t="s">
         <v>320</v>
       </c>
-      <c r="L37" s="52"/>
-      <c r="M37" s="52"/>
-      <c r="N37" s="52"/>
-      <c r="O37" s="51"/>
-    </row>
-    <row r="38" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="63"/>
-      <c r="B38" s="86">
-        <f>ROW(B38) - ROW($B$9)</f>
+      <c r="L37" s="110">
+        <v>0.59</v>
+      </c>
+      <c r="M37" s="100">
+        <f t="shared" si="1"/>
+        <v>2.36</v>
+      </c>
+      <c r="N37" s="51"/>
+      <c r="O37" s="50"/>
+    </row>
+    <row r="38" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="62"/>
+      <c r="B38" s="85">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C38" s="87" t="s">
+      <c r="C38" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="88">
+      <c r="D38" s="101">
         <v>4</v>
       </c>
-      <c r="E38" s="87" t="s">
+      <c r="E38" s="86" t="s">
         <v>141</v>
       </c>
-      <c r="F38" s="87" t="s">
+      <c r="F38" s="86" t="s">
         <v>216</v>
       </c>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="88" t="s">
+      <c r="G38" s="86" t="s">
+        <v>411</v>
+      </c>
+      <c r="H38" s="86" t="s">
+        <v>412</v>
+      </c>
+      <c r="I38" s="87" t="s">
         <v>275</v>
       </c>
-      <c r="J38" s="88" t="s">
+      <c r="J38" s="87" t="s">
         <v>290</v>
       </c>
-      <c r="K38" s="89" t="s">
+      <c r="K38" s="88" t="s">
         <v>321</v>
       </c>
-      <c r="L38" s="25"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="50"/>
-      <c r="O38" s="51"/>
-    </row>
-    <row r="39" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="63"/>
-      <c r="B39" s="90">
-        <f>ROW(B39) - ROW($B$9)</f>
+      <c r="L38" s="110">
+        <v>0.1</v>
+      </c>
+      <c r="M38" s="100">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="N38" s="49"/>
+      <c r="O38" s="50"/>
+    </row>
+    <row r="39" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="62"/>
+      <c r="B39" s="89">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C39" s="83" t="s">
+      <c r="C39" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="92">
+      <c r="D39" s="102">
         <v>2</v>
       </c>
-      <c r="E39" s="84" t="s">
+      <c r="E39" s="83" t="s">
         <v>144</v>
       </c>
-      <c r="F39" s="84" t="s">
+      <c r="F39" s="83" t="s">
         <v>217</v>
       </c>
-      <c r="G39" s="84"/>
-      <c r="H39" s="84"/>
-      <c r="I39" s="85" t="s">
+      <c r="G39" s="83" t="s">
+        <v>411</v>
+      </c>
+      <c r="H39" s="83" t="s">
+        <v>144</v>
+      </c>
+      <c r="I39" s="84" t="s">
         <v>276</v>
       </c>
-      <c r="J39" s="85" t="s">
+      <c r="J39" s="84" t="s">
         <v>290</v>
       </c>
-      <c r="K39" s="91" t="s">
+      <c r="K39" s="90" t="s">
         <v>322</v>
       </c>
-      <c r="L39" s="52"/>
-      <c r="M39" s="52"/>
-      <c r="N39" s="52"/>
-      <c r="O39" s="51"/>
-    </row>
-    <row r="40" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="63"/>
-      <c r="B40" s="86">
-        <f>ROW(B40) - ROW($B$9)</f>
+      <c r="L39" s="110">
+        <v>0.1</v>
+      </c>
+      <c r="M39" s="100">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="N39" s="51"/>
+      <c r="O39" s="50"/>
+    </row>
+    <row r="40" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="62"/>
+      <c r="B40" s="85">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C40" s="87" t="s">
+      <c r="C40" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="D40" s="88">
+      <c r="D40" s="101">
         <v>8</v>
       </c>
-      <c r="E40" s="87" t="s">
+      <c r="E40" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="F40" s="87" t="s">
+      <c r="F40" s="86" t="s">
         <v>218</v>
       </c>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="88" t="s">
+      <c r="G40" s="86" t="s">
+        <v>413</v>
+      </c>
+      <c r="H40" s="86" t="s">
+        <v>414</v>
+      </c>
+      <c r="I40" s="87" t="s">
         <v>275</v>
       </c>
-      <c r="J40" s="88" t="s">
+      <c r="J40" s="87" t="s">
         <v>290</v>
       </c>
-      <c r="K40" s="89" t="s">
+      <c r="K40" s="88" t="s">
         <v>323</v>
       </c>
-      <c r="L40" s="25"/>
-      <c r="M40" s="50"/>
-      <c r="N40" s="50"/>
-      <c r="O40" s="51"/>
-    </row>
-    <row r="41" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="63"/>
-      <c r="B41" s="90">
-        <f>ROW(B41) - ROW($B$9)</f>
+      <c r="L40" s="110">
+        <v>0.1</v>
+      </c>
+      <c r="M40" s="100">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="N40" s="49"/>
+      <c r="O40" s="50"/>
+    </row>
+    <row r="41" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="62"/>
+      <c r="B41" s="89">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C41" s="83" t="s">
+      <c r="C41" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="92">
+      <c r="D41" s="102">
         <v>1</v>
       </c>
-      <c r="E41" s="84" t="s">
+      <c r="E41" s="83" t="s">
         <v>146</v>
       </c>
-      <c r="F41" s="84" t="s">
+      <c r="F41" s="83" t="s">
         <v>219</v>
       </c>
-      <c r="G41" s="84"/>
-      <c r="H41" s="84"/>
-      <c r="I41" s="85" t="s">
+      <c r="G41" s="83" t="s">
+        <v>413</v>
+      </c>
+      <c r="H41" s="83" t="s">
+        <v>415</v>
+      </c>
+      <c r="I41" s="84" t="s">
         <v>275</v>
       </c>
-      <c r="J41" s="85" t="s">
+      <c r="J41" s="84" t="s">
         <v>290</v>
       </c>
-      <c r="K41" s="91" t="s">
+      <c r="K41" s="90" t="s">
         <v>324</v>
       </c>
-      <c r="L41" s="52"/>
-      <c r="M41" s="52"/>
-      <c r="N41" s="52"/>
-      <c r="O41" s="51"/>
-    </row>
-    <row r="42" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="63"/>
-      <c r="B42" s="86">
-        <f>ROW(B42) - ROW($B$9)</f>
+      <c r="L41" s="110">
+        <v>0.36</v>
+      </c>
+      <c r="M41" s="100">
+        <f t="shared" si="1"/>
+        <v>0.36</v>
+      </c>
+      <c r="N41" s="51"/>
+      <c r="O41" s="50"/>
+    </row>
+    <row r="42" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="62"/>
+      <c r="B42" s="85">
+        <f t="shared" ref="B42:B73" si="2">ROW(B42) - ROW($B$9)</f>
         <v>33</v>
       </c>
-      <c r="C42" s="87" t="s">
+      <c r="C42" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="88">
+      <c r="D42" s="101">
         <v>1</v>
       </c>
-      <c r="E42" s="87" t="s">
+      <c r="E42" s="86" t="s">
         <v>147</v>
       </c>
-      <c r="F42" s="87" t="s">
+      <c r="F42" s="86" t="s">
         <v>220</v>
       </c>
-      <c r="G42" s="87"/>
-      <c r="H42" s="87"/>
-      <c r="I42" s="88" t="s">
+      <c r="G42" s="86" t="s">
+        <v>406</v>
+      </c>
+      <c r="H42" s="86" t="s">
+        <v>416</v>
+      </c>
+      <c r="I42" s="87" t="s">
         <v>275</v>
       </c>
-      <c r="J42" s="88" t="s">
+      <c r="J42" s="87" t="s">
         <v>290</v>
       </c>
-      <c r="K42" s="89" t="s">
+      <c r="K42" s="88" t="s">
         <v>325</v>
       </c>
-      <c r="L42" s="25"/>
-      <c r="M42" s="50"/>
-      <c r="N42" s="50"/>
-      <c r="O42" s="51"/>
-    </row>
-    <row r="43" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="63"/>
-      <c r="B43" s="90">
-        <f>ROW(B43) - ROW($B$9)</f>
+      <c r="L42" s="110">
+        <v>0.26</v>
+      </c>
+      <c r="M42" s="100">
+        <f t="shared" si="1"/>
+        <v>0.26</v>
+      </c>
+      <c r="N42" s="49"/>
+      <c r="O42" s="50"/>
+    </row>
+    <row r="43" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="62"/>
+      <c r="B43" s="89">
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="C43" s="83" t="s">
+      <c r="C43" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="D43" s="92">
+      <c r="D43" s="102">
         <v>1</v>
       </c>
-      <c r="E43" s="84" t="s">
+      <c r="E43" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="F43" s="84" t="s">
+      <c r="F43" s="83" t="s">
         <v>221</v>
       </c>
-      <c r="G43" s="84"/>
-      <c r="H43" s="84"/>
-      <c r="I43" s="85" t="s">
+      <c r="G43" s="83" t="s">
+        <v>406</v>
+      </c>
+      <c r="H43" s="83" t="s">
+        <v>417</v>
+      </c>
+      <c r="I43" s="84" t="s">
         <v>275</v>
       </c>
-      <c r="J43" s="85" t="s">
+      <c r="J43" s="84" t="s">
         <v>290</v>
       </c>
-      <c r="K43" s="91" t="s">
+      <c r="K43" s="90" t="s">
         <v>326</v>
       </c>
-      <c r="L43" s="52"/>
-      <c r="M43" s="52"/>
-      <c r="N43" s="52"/>
-      <c r="O43" s="51"/>
-    </row>
-    <row r="44" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="63"/>
-      <c r="B44" s="86">
-        <f>ROW(B44) - ROW($B$9)</f>
+      <c r="L43" s="110">
+        <v>0.26</v>
+      </c>
+      <c r="M43" s="100">
+        <f t="shared" si="1"/>
+        <v>0.26</v>
+      </c>
+      <c r="N43" s="51"/>
+      <c r="O43" s="50"/>
+    </row>
+    <row r="44" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="62"/>
+      <c r="B44" s="85">
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="C44" s="87" t="s">
+      <c r="C44" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="88">
+      <c r="D44" s="101">
         <v>3</v>
       </c>
-      <c r="E44" s="87" t="s">
+      <c r="E44" s="86" t="s">
         <v>143</v>
       </c>
-      <c r="F44" s="87" t="s">
+      <c r="F44" s="86" t="s">
         <v>222</v>
       </c>
-      <c r="G44" s="87"/>
-      <c r="H44" s="87"/>
-      <c r="I44" s="88" t="s">
+      <c r="G44" s="86" t="s">
+        <v>400</v>
+      </c>
+      <c r="H44" s="86" t="s">
+        <v>418</v>
+      </c>
+      <c r="I44" s="87" t="s">
         <v>275</v>
       </c>
-      <c r="J44" s="88" t="s">
+      <c r="J44" s="87" t="s">
         <v>290</v>
       </c>
-      <c r="K44" s="89" t="s">
+      <c r="K44" s="88" t="s">
         <v>327</v>
       </c>
-      <c r="L44" s="25"/>
-      <c r="M44" s="50"/>
-      <c r="N44" s="50"/>
-      <c r="O44" s="51"/>
-    </row>
-    <row r="45" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="63"/>
-      <c r="B45" s="90">
-        <f>ROW(B45) - ROW($B$9)</f>
+      <c r="L44" s="110">
+        <v>0.1</v>
+      </c>
+      <c r="M44" s="100">
+        <f t="shared" si="1"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="N44" s="49"/>
+      <c r="O44" s="50"/>
+    </row>
+    <row r="45" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="62"/>
+      <c r="B45" s="89">
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="C45" s="83" t="s">
+      <c r="C45" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="D45" s="92">
+      <c r="D45" s="102">
         <v>3</v>
       </c>
-      <c r="E45" s="84" t="s">
+      <c r="E45" s="83" t="s">
         <v>145</v>
       </c>
-      <c r="F45" s="84" t="s">
+      <c r="F45" s="83" t="s">
         <v>223</v>
       </c>
-      <c r="G45" s="84"/>
-      <c r="H45" s="84"/>
-      <c r="I45" s="85" t="s">
+      <c r="G45" s="83" t="s">
+        <v>411</v>
+      </c>
+      <c r="H45" s="83" t="s">
+        <v>419</v>
+      </c>
+      <c r="I45" s="84" t="s">
         <v>275</v>
       </c>
-      <c r="J45" s="85" t="s">
+      <c r="J45" s="84" t="s">
         <v>290</v>
       </c>
-      <c r="K45" s="91" t="s">
+      <c r="K45" s="90" t="s">
         <v>328</v>
       </c>
-      <c r="L45" s="52"/>
-      <c r="M45" s="52"/>
-      <c r="N45" s="52"/>
-      <c r="O45" s="51"/>
-    </row>
-    <row r="46" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="63"/>
-      <c r="B46" s="86">
-        <f>ROW(B46) - ROW($B$9)</f>
+      <c r="L45" s="110">
+        <v>0.1</v>
+      </c>
+      <c r="M45" s="100">
+        <f t="shared" si="1"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="N45" s="51"/>
+      <c r="O45" s="50"/>
+    </row>
+    <row r="46" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="62"/>
+      <c r="B46" s="85">
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="C46" s="87" t="s">
+      <c r="C46" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="D46" s="88">
+      <c r="D46" s="101">
         <v>1</v>
       </c>
-      <c r="E46" s="87" t="s">
+      <c r="E46" s="86" t="s">
         <v>149</v>
       </c>
-      <c r="F46" s="87" t="s">
+      <c r="F46" s="86" t="s">
         <v>224</v>
       </c>
-      <c r="G46" s="87"/>
-      <c r="H46" s="87"/>
-      <c r="I46" s="88" t="s">
+      <c r="G46" s="86" t="s">
+        <v>411</v>
+      </c>
+      <c r="H46" s="86" t="s">
+        <v>420</v>
+      </c>
+      <c r="I46" s="87" t="s">
         <v>275</v>
       </c>
-      <c r="J46" s="88" t="s">
+      <c r="J46" s="87" t="s">
         <v>290</v>
       </c>
-      <c r="K46" s="89" t="s">
+      <c r="K46" s="88" t="s">
         <v>329</v>
       </c>
-      <c r="L46" s="25"/>
-      <c r="M46" s="50"/>
-      <c r="N46" s="50"/>
-      <c r="O46" s="51"/>
-    </row>
-    <row r="47" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="63"/>
-      <c r="B47" s="90">
-        <f>ROW(B47) - ROW($B$9)</f>
+      <c r="L46" s="110">
+        <v>0.23</v>
+      </c>
+      <c r="M46" s="100">
+        <f t="shared" si="1"/>
+        <v>0.23</v>
+      </c>
+      <c r="N46" s="49"/>
+      <c r="O46" s="50"/>
+    </row>
+    <row r="47" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="62"/>
+      <c r="B47" s="89">
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="C47" s="83" t="s">
+      <c r="C47" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="92">
+      <c r="D47" s="102">
         <v>1</v>
       </c>
-      <c r="E47" s="84" t="s">
+      <c r="E47" s="83" t="s">
         <v>150</v>
       </c>
-      <c r="F47" s="84" t="s">
+      <c r="F47" s="83" t="s">
         <v>225</v>
       </c>
-      <c r="G47" s="84"/>
-      <c r="H47" s="84"/>
-      <c r="I47" s="85" t="s">
+      <c r="G47" s="83" t="s">
+        <v>413</v>
+      </c>
+      <c r="H47" s="83" t="s">
+        <v>421</v>
+      </c>
+      <c r="I47" s="84" t="s">
         <v>275</v>
       </c>
-      <c r="J47" s="85" t="s">
+      <c r="J47" s="84" t="s">
         <v>290</v>
       </c>
-      <c r="K47" s="91" t="s">
+      <c r="K47" s="90" t="s">
         <v>330</v>
       </c>
-      <c r="L47" s="52"/>
-      <c r="M47" s="52"/>
-      <c r="N47" s="52"/>
-      <c r="O47" s="51"/>
-    </row>
-    <row r="48" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="63"/>
-      <c r="B48" s="86">
-        <f>ROW(B48) - ROW($B$9)</f>
+      <c r="L47" s="110">
+        <v>0.1</v>
+      </c>
+      <c r="M47" s="100">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="N47" s="51"/>
+      <c r="O47" s="50"/>
+    </row>
+    <row r="48" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="62"/>
+      <c r="B48" s="85">
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="C48" s="87" t="s">
+      <c r="C48" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="D48" s="88">
+      <c r="D48" s="101">
         <v>1</v>
       </c>
-      <c r="E48" s="87" t="s">
+      <c r="E48" s="86" t="s">
         <v>151</v>
       </c>
-      <c r="F48" s="87" t="s">
+      <c r="F48" s="86" t="s">
         <v>226</v>
       </c>
-      <c r="G48" s="87"/>
-      <c r="H48" s="87"/>
-      <c r="I48" s="88" t="s">
+      <c r="G48" s="86" t="s">
+        <v>413</v>
+      </c>
+      <c r="H48" s="86" t="s">
+        <v>422</v>
+      </c>
+      <c r="I48" s="87" t="s">
         <v>275</v>
       </c>
-      <c r="J48" s="88" t="s">
+      <c r="J48" s="87" t="s">
         <v>290</v>
       </c>
-      <c r="K48" s="89" t="s">
+      <c r="K48" s="88" t="s">
         <v>331</v>
       </c>
-      <c r="L48" s="25"/>
-      <c r="M48" s="50"/>
-      <c r="N48" s="50"/>
-      <c r="O48" s="51"/>
-    </row>
-    <row r="49" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="63"/>
-      <c r="B49" s="90">
-        <f>ROW(B49) - ROW($B$9)</f>
+      <c r="L48" s="110">
+        <v>0.1</v>
+      </c>
+      <c r="M48" s="100">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="N48" s="49"/>
+      <c r="O48" s="50"/>
+    </row>
+    <row r="49" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="62"/>
+      <c r="B49" s="89">
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="C49" s="83" t="s">
+      <c r="C49" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="D49" s="92">
+      <c r="D49" s="102">
         <v>1</v>
       </c>
-      <c r="E49" s="84" t="s">
+      <c r="E49" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="F49" s="84" t="s">
+      <c r="F49" s="83" t="s">
         <v>227</v>
       </c>
-      <c r="G49" s="84"/>
-      <c r="H49" s="84"/>
-      <c r="I49" s="85" t="s">
+      <c r="G49" s="83" t="s">
+        <v>413</v>
+      </c>
+      <c r="H49" s="83" t="s">
+        <v>423</v>
+      </c>
+      <c r="I49" s="84" t="s">
         <v>275</v>
       </c>
-      <c r="J49" s="85" t="s">
+      <c r="J49" s="84" t="s">
         <v>290</v>
       </c>
-      <c r="K49" s="91" t="s">
+      <c r="K49" s="90" t="s">
         <v>332</v>
       </c>
-      <c r="L49" s="52"/>
-      <c r="M49" s="52"/>
-      <c r="N49" s="52"/>
-      <c r="O49" s="51"/>
-    </row>
-    <row r="50" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="63"/>
-      <c r="B50" s="86">
-        <f>ROW(B50) - ROW($B$9)</f>
+      <c r="L49" s="110">
+        <v>0.22</v>
+      </c>
+      <c r="M49" s="100">
+        <f t="shared" si="1"/>
+        <v>0.22</v>
+      </c>
+      <c r="N49" s="51"/>
+      <c r="O49" s="50"/>
+    </row>
+    <row r="50" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="62"/>
+      <c r="B50" s="85">
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="C50" s="87" t="s">
+      <c r="C50" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="88">
+      <c r="D50" s="101">
         <v>1</v>
       </c>
-      <c r="E50" s="87" t="s">
+      <c r="E50" s="86" t="s">
         <v>152</v>
       </c>
-      <c r="F50" s="87" t="s">
+      <c r="F50" s="86" t="s">
         <v>228</v>
       </c>
-      <c r="G50" s="87"/>
-      <c r="H50" s="87"/>
-      <c r="I50" s="88" t="s">
+      <c r="G50" s="86" t="s">
+        <v>390</v>
+      </c>
+      <c r="H50" s="86" t="s">
+        <v>152</v>
+      </c>
+      <c r="I50" s="87" t="s">
         <v>277</v>
       </c>
-      <c r="J50" s="88" t="s">
+      <c r="J50" s="87" t="s">
         <v>290</v>
       </c>
-      <c r="K50" s="89" t="s">
+      <c r="K50" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="L50" s="25"/>
-      <c r="M50" s="50"/>
-      <c r="N50" s="50"/>
-      <c r="O50" s="51"/>
+      <c r="L50" s="110">
+        <v>0.13</v>
+      </c>
+      <c r="M50" s="100">
+        <f t="shared" si="1"/>
+        <v>0.13</v>
+      </c>
+      <c r="N50" s="49"/>
+      <c r="O50" s="50"/>
     </row>
     <row r="51" spans="1:15" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="63"/>
-      <c r="B51" s="90">
-        <f>ROW(B51) - ROW($B$9)</f>
+      <c r="A51" s="62"/>
+      <c r="B51" s="89">
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="C51" s="83" t="s">
+      <c r="C51" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="D51" s="92">
+      <c r="D51" s="102">
         <v>1</v>
       </c>
-      <c r="E51" s="84" t="s">
+      <c r="E51" s="83" t="s">
         <v>153</v>
       </c>
-      <c r="F51" s="84" t="s">
+      <c r="F51" s="83" t="s">
         <v>229</v>
       </c>
-      <c r="G51" s="84"/>
-      <c r="H51" s="84"/>
-      <c r="I51" s="85"/>
-      <c r="J51" s="85" t="s">
+      <c r="G51" s="83" t="s">
+        <v>424</v>
+      </c>
+      <c r="H51" s="83" t="s">
+        <v>425</v>
+      </c>
+      <c r="I51" s="84"/>
+      <c r="J51" s="84" t="s">
         <v>291</v>
       </c>
-      <c r="K51" s="91" t="s">
+      <c r="K51" s="90" t="s">
         <v>334</v>
       </c>
-      <c r="L51" s="52"/>
-      <c r="M51" s="52"/>
-      <c r="N51" s="52"/>
-      <c r="O51" s="51"/>
+      <c r="L51" s="110">
+        <v>0.8</v>
+      </c>
+      <c r="M51" s="100">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="N51" s="51"/>
+      <c r="O51" s="50"/>
     </row>
     <row r="52" spans="1:15" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="63"/>
-      <c r="B52" s="86">
-        <f>ROW(B52) - ROW($B$9)</f>
+      <c r="A52" s="62"/>
+      <c r="B52" s="85">
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="C52" s="87" t="s">
+      <c r="C52" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="D52" s="88">
+      <c r="D52" s="101">
         <v>1</v>
       </c>
-      <c r="E52" s="87" t="s">
+      <c r="E52" s="86" t="s">
         <v>154</v>
       </c>
-      <c r="F52" s="87" t="s">
+      <c r="F52" s="86" t="s">
         <v>230</v>
       </c>
-      <c r="G52" s="87"/>
-      <c r="H52" s="87"/>
-      <c r="I52" s="88"/>
-      <c r="J52" s="88"/>
-      <c r="K52" s="89"/>
-      <c r="L52" s="25"/>
-      <c r="M52" s="50"/>
-      <c r="N52" s="50"/>
-      <c r="O52" s="51"/>
-    </row>
-    <row r="53" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="63"/>
-      <c r="B53" s="90">
-        <f>ROW(B53) - ROW($B$9)</f>
+      <c r="G52" s="86"/>
+      <c r="H52" s="86"/>
+      <c r="I52" s="87"/>
+      <c r="J52" s="87"/>
+      <c r="K52" s="88"/>
+      <c r="L52" s="114"/>
+      <c r="M52" s="100">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N52" s="49"/>
+      <c r="O52" s="50"/>
+    </row>
+    <row r="53" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="62"/>
+      <c r="B53" s="89">
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="C53" s="83" t="s">
+      <c r="C53" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="D53" s="92">
+      <c r="D53" s="102">
         <v>3</v>
       </c>
-      <c r="E53" s="84" t="s">
+      <c r="E53" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="F53" s="84" t="s">
+      <c r="F53" s="83" t="s">
         <v>231</v>
       </c>
-      <c r="G53" s="84"/>
-      <c r="H53" s="84"/>
-      <c r="I53" s="85"/>
-      <c r="J53" s="85"/>
-      <c r="K53" s="91"/>
-      <c r="L53" s="52"/>
-      <c r="M53" s="52"/>
-      <c r="N53" s="52"/>
-      <c r="O53" s="51"/>
+      <c r="G53" s="83"/>
+      <c r="H53" s="83"/>
+      <c r="I53" s="84"/>
+      <c r="J53" s="84"/>
+      <c r="K53" s="90"/>
+      <c r="L53" s="115"/>
+      <c r="M53" s="100">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N53" s="51"/>
+      <c r="O53" s="50"/>
     </row>
     <row r="54" spans="1:15" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="63"/>
-      <c r="B54" s="86">
-        <f>ROW(B54) - ROW($B$9)</f>
+      <c r="A54" s="62"/>
+      <c r="B54" s="85">
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="C54" s="87" t="s">
+      <c r="C54" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="D54" s="88">
+      <c r="D54" s="101">
         <v>8</v>
       </c>
-      <c r="E54" s="87" t="s">
+      <c r="E54" s="86" t="s">
         <v>156</v>
       </c>
-      <c r="F54" s="87" t="s">
+      <c r="F54" s="86" t="s">
         <v>232</v>
       </c>
-      <c r="G54" s="87"/>
-      <c r="H54" s="87"/>
-      <c r="I54" s="88"/>
-      <c r="J54" s="88" t="s">
+      <c r="G54" s="86" t="s">
+        <v>393</v>
+      </c>
+      <c r="H54" s="86" t="s">
+        <v>426</v>
+      </c>
+      <c r="I54" s="87"/>
+      <c r="J54" s="87" t="s">
         <v>291</v>
       </c>
-      <c r="K54" s="89" t="s">
+      <c r="K54" s="88" t="s">
         <v>335</v>
       </c>
-      <c r="L54" s="25"/>
-      <c r="M54" s="50"/>
-      <c r="N54" s="50"/>
-      <c r="O54" s="51"/>
+      <c r="L54" s="113">
+        <v>0.32</v>
+      </c>
+      <c r="M54" s="100">
+        <f t="shared" si="1"/>
+        <v>2.56</v>
+      </c>
+      <c r="N54" s="49"/>
+      <c r="O54" s="50"/>
     </row>
     <row r="55" spans="1:15" s="2" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="63"/>
-      <c r="B55" s="90">
-        <f>ROW(B55) - ROW($B$9)</f>
+      <c r="A55" s="62"/>
+      <c r="B55" s="89">
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="C55" s="83" t="s">
+      <c r="C55" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="D55" s="92">
+      <c r="D55" s="102">
         <v>1</v>
       </c>
-      <c r="E55" s="84" t="s">
+      <c r="E55" s="83" t="s">
         <v>157</v>
       </c>
-      <c r="F55" s="84" t="s">
+      <c r="F55" s="83" t="s">
         <v>233</v>
       </c>
-      <c r="G55" s="84"/>
-      <c r="H55" s="84"/>
-      <c r="I55" s="85"/>
-      <c r="J55" s="85" t="s">
+      <c r="G55" s="83"/>
+      <c r="H55" s="83"/>
+      <c r="I55" s="84"/>
+      <c r="J55" s="84" t="s">
         <v>291</v>
       </c>
-      <c r="K55" s="91" t="s">
+      <c r="K55" s="90" t="s">
         <v>336</v>
       </c>
-      <c r="L55" s="52"/>
-      <c r="M55" s="52"/>
-      <c r="N55" s="52"/>
-      <c r="O55" s="51"/>
-    </row>
-    <row r="56" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="63"/>
-      <c r="B56" s="86">
-        <f>ROW(B56) - ROW($B$9)</f>
+      <c r="L55" s="115"/>
+      <c r="M55" s="100">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N55" s="51"/>
+      <c r="O55" s="50"/>
+    </row>
+    <row r="56" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="62"/>
+      <c r="B56" s="85">
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="C56" s="87" t="s">
+      <c r="C56" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="88">
+      <c r="D56" s="101">
         <v>1</v>
       </c>
-      <c r="E56" s="87" t="s">
+      <c r="E56" s="86" t="s">
         <v>158</v>
       </c>
-      <c r="F56" s="87" t="s">
+      <c r="F56" s="86" t="s">
         <v>234</v>
       </c>
-      <c r="G56" s="87"/>
-      <c r="H56" s="87"/>
-      <c r="I56" s="88" t="s">
+      <c r="G56" s="86" t="s">
+        <v>427</v>
+      </c>
+      <c r="H56" s="86" t="s">
+        <v>428</v>
+      </c>
+      <c r="I56" s="87" t="s">
         <v>278</v>
       </c>
-      <c r="J56" s="88" t="s">
+      <c r="J56" s="87" t="s">
         <v>290</v>
       </c>
-      <c r="K56" s="89" t="s">
+      <c r="K56" s="88" t="s">
         <v>337</v>
       </c>
-      <c r="L56" s="25"/>
-      <c r="M56" s="50"/>
-      <c r="N56" s="50"/>
-      <c r="O56" s="51"/>
-    </row>
-    <row r="57" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="63"/>
-      <c r="B57" s="90">
-        <f>ROW(B57) - ROW($B$9)</f>
+      <c r="L56" s="110">
+        <v>12.18</v>
+      </c>
+      <c r="M56" s="100">
+        <f t="shared" si="1"/>
+        <v>12.18</v>
+      </c>
+      <c r="N56" s="49"/>
+      <c r="O56" s="50"/>
+    </row>
+    <row r="57" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="62"/>
+      <c r="B57" s="89">
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="C57" s="83" t="s">
+      <c r="C57" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="D57" s="92">
+      <c r="D57" s="102">
         <v>1</v>
       </c>
-      <c r="E57" s="84" t="s">
+      <c r="E57" s="83" t="s">
         <v>159</v>
       </c>
-      <c r="F57" s="84" t="s">
+      <c r="F57" s="83" t="s">
         <v>235</v>
       </c>
-      <c r="G57" s="84"/>
-      <c r="H57" s="84"/>
-      <c r="I57" s="85" t="s">
+      <c r="G57" s="83" t="s">
+        <v>396</v>
+      </c>
+      <c r="H57" s="83" t="s">
+        <v>429</v>
+      </c>
+      <c r="I57" s="84" t="s">
         <v>279</v>
       </c>
-      <c r="J57" s="85" t="s">
+      <c r="J57" s="84" t="s">
         <v>290</v>
       </c>
-      <c r="K57" s="91" t="s">
+      <c r="K57" s="90" t="s">
         <v>338</v>
       </c>
-      <c r="L57" s="52"/>
-      <c r="M57" s="52"/>
-      <c r="N57" s="52"/>
-      <c r="O57" s="51"/>
-    </row>
-    <row r="58" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="63"/>
-      <c r="B58" s="86">
-        <f>ROW(B58) - ROW($B$9)</f>
+      <c r="L57" s="110">
+        <v>1.19</v>
+      </c>
+      <c r="M57" s="100">
+        <f t="shared" si="1"/>
+        <v>1.19</v>
+      </c>
+      <c r="N57" s="51"/>
+      <c r="O57" s="50"/>
+    </row>
+    <row r="58" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="62"/>
+      <c r="B58" s="85">
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="C58" s="87" t="s">
+      <c r="C58" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="D58" s="88">
+      <c r="D58" s="101">
         <v>1</v>
       </c>
-      <c r="E58" s="87" t="s">
+      <c r="E58" s="86" t="s">
         <v>160</v>
       </c>
-      <c r="F58" s="87" t="s">
+      <c r="F58" s="86" t="s">
         <v>236</v>
       </c>
-      <c r="G58" s="87"/>
-      <c r="H58" s="87"/>
-      <c r="I58" s="88"/>
-      <c r="J58" s="88" t="s">
+      <c r="G58" s="86" t="s">
+        <v>430</v>
+      </c>
+      <c r="H58" s="86">
+        <v>3845</v>
+      </c>
+      <c r="I58" s="87"/>
+      <c r="J58" s="87" t="s">
         <v>291</v>
       </c>
-      <c r="K58" s="89" t="s">
+      <c r="K58" s="88" t="s">
         <v>339</v>
       </c>
-      <c r="L58" s="25"/>
-      <c r="M58" s="50"/>
-      <c r="N58" s="50"/>
-      <c r="O58" s="51"/>
-    </row>
-    <row r="59" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="63"/>
-      <c r="B59" s="90">
-        <f>ROW(B59) - ROW($B$9)</f>
+      <c r="L58" s="110">
+        <v>6.5</v>
+      </c>
+      <c r="M58" s="100">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+      <c r="N58" s="49"/>
+      <c r="O58" s="50"/>
+    </row>
+    <row r="59" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="62"/>
+      <c r="B59" s="89">
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="C59" s="83" t="s">
+      <c r="C59" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="D59" s="92">
+      <c r="D59" s="102">
         <v>1</v>
       </c>
-      <c r="E59" s="84" t="s">
+      <c r="E59" s="83" t="s">
         <v>161</v>
       </c>
-      <c r="F59" s="84" t="s">
+      <c r="F59" s="83" t="s">
         <v>237</v>
       </c>
-      <c r="G59" s="84"/>
-      <c r="H59" s="84"/>
-      <c r="I59" s="85"/>
-      <c r="J59" s="85" t="s">
+      <c r="G59" s="83" t="s">
+        <v>431</v>
+      </c>
+      <c r="H59" s="83" t="s">
+        <v>161</v>
+      </c>
+      <c r="I59" s="84"/>
+      <c r="J59" s="84" t="s">
         <v>290</v>
       </c>
-      <c r="K59" s="91" t="s">
+      <c r="K59" s="90" t="s">
         <v>340</v>
       </c>
-      <c r="L59" s="52"/>
-      <c r="M59" s="52"/>
-      <c r="N59" s="52"/>
-      <c r="O59" s="51"/>
-    </row>
-    <row r="60" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="63"/>
-      <c r="B60" s="86">
-        <f>ROW(B60) - ROW($B$9)</f>
+      <c r="L59" s="110">
+        <v>2.06</v>
+      </c>
+      <c r="M59" s="100">
+        <f t="shared" si="1"/>
+        <v>2.06</v>
+      </c>
+      <c r="N59" s="51"/>
+      <c r="O59" s="50"/>
+    </row>
+    <row r="60" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="62"/>
+      <c r="B60" s="85">
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
-      <c r="C60" s="87" t="s">
+      <c r="C60" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="D60" s="88">
+      <c r="D60" s="101">
         <v>3</v>
       </c>
-      <c r="E60" s="87" t="s">
+      <c r="E60" s="86" t="s">
         <v>162</v>
       </c>
-      <c r="F60" s="87" t="s">
+      <c r="F60" s="86" t="s">
         <v>238</v>
       </c>
-      <c r="G60" s="87"/>
-      <c r="H60" s="87"/>
-      <c r="I60" s="88"/>
-      <c r="J60" s="88" t="s">
+      <c r="G60" s="86" t="s">
+        <v>431</v>
+      </c>
+      <c r="H60" s="86" t="s">
+        <v>162</v>
+      </c>
+      <c r="I60" s="87"/>
+      <c r="J60" s="87" t="s">
         <v>290</v>
       </c>
-      <c r="K60" s="89" t="s">
+      <c r="K60" s="88" t="s">
         <v>341</v>
       </c>
-      <c r="L60" s="25"/>
-      <c r="M60" s="50"/>
-      <c r="N60" s="50"/>
-      <c r="O60" s="51"/>
+      <c r="L60" s="110">
+        <v>1.27</v>
+      </c>
+      <c r="M60" s="100">
+        <f t="shared" si="1"/>
+        <v>3.81</v>
+      </c>
+      <c r="N60" s="49"/>
+      <c r="O60" s="50"/>
     </row>
     <row r="61" spans="1:15" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="63"/>
-      <c r="B61" s="90">
-        <f>ROW(B61) - ROW($B$9)</f>
+      <c r="A61" s="62"/>
+      <c r="B61" s="89">
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="C61" s="83" t="s">
+      <c r="C61" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="D61" s="92">
+      <c r="D61" s="102">
         <v>4</v>
       </c>
-      <c r="E61" s="84" t="s">
+      <c r="E61" s="83" t="s">
         <v>163</v>
       </c>
-      <c r="F61" s="84" t="s">
+      <c r="F61" s="83" t="s">
         <v>239</v>
       </c>
-      <c r="G61" s="84"/>
-      <c r="H61" s="84"/>
-      <c r="I61" s="85"/>
-      <c r="J61" s="85" t="s">
+      <c r="G61" s="83" t="s">
+        <v>432</v>
+      </c>
+      <c r="H61" s="83" t="s">
+        <v>433</v>
+      </c>
+      <c r="I61" s="84"/>
+      <c r="J61" s="84" t="s">
         <v>293</v>
       </c>
-      <c r="K61" s="91" t="s">
+      <c r="K61" s="90" t="s">
         <v>342</v>
       </c>
-      <c r="L61" s="52"/>
-      <c r="M61" s="52"/>
-      <c r="N61" s="52"/>
-      <c r="O61" s="51"/>
-    </row>
-    <row r="62" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="63"/>
-      <c r="B62" s="86">
-        <f>ROW(B62) - ROW($B$9)</f>
+      <c r="L61" s="110">
+        <v>0.1</v>
+      </c>
+      <c r="M61" s="100">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="N61" s="51"/>
+      <c r="O61" s="50"/>
+    </row>
+    <row r="62" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="62"/>
+      <c r="B62" s="85">
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="C62" s="87" t="s">
+      <c r="C62" s="86" t="s">
         <v>84</v>
       </c>
-      <c r="D62" s="88">
+      <c r="D62" s="101">
         <v>1</v>
       </c>
-      <c r="E62" s="87" t="s">
+      <c r="E62" s="86" t="s">
         <v>164</v>
       </c>
-      <c r="F62" s="87" t="s">
+      <c r="F62" s="86" t="s">
         <v>240</v>
       </c>
-      <c r="G62" s="87"/>
-      <c r="H62" s="87"/>
-      <c r="I62" s="88"/>
-      <c r="J62" s="88" t="s">
+      <c r="G62" s="86" t="s">
+        <v>384</v>
+      </c>
+      <c r="H62" s="86" t="s">
+        <v>434</v>
+      </c>
+      <c r="I62" s="87"/>
+      <c r="J62" s="87" t="s">
         <v>291</v>
       </c>
-      <c r="K62" s="89" t="s">
+      <c r="K62" s="88" t="s">
         <v>343</v>
       </c>
-      <c r="L62" s="25"/>
-      <c r="M62" s="50"/>
-      <c r="N62" s="50"/>
-      <c r="O62" s="51"/>
-    </row>
-    <row r="63" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="63"/>
-      <c r="B63" s="90">
-        <f>ROW(B63) - ROW($B$9)</f>
+      <c r="L62" s="113">
+        <v>1.89</v>
+      </c>
+      <c r="M62" s="100">
+        <f t="shared" si="1"/>
+        <v>1.89</v>
+      </c>
+      <c r="N62" s="49"/>
+      <c r="O62" s="50"/>
+    </row>
+    <row r="63" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="62"/>
+      <c r="B63" s="89">
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="C63" s="83" t="s">
+      <c r="C63" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="D63" s="92">
+      <c r="D63" s="102">
         <v>2</v>
       </c>
-      <c r="E63" s="84" t="s">
+      <c r="E63" s="83" t="s">
         <v>165</v>
       </c>
-      <c r="F63" s="84" t="s">
+      <c r="F63" s="83" t="s">
         <v>241</v>
       </c>
-      <c r="G63" s="84"/>
-      <c r="H63" s="84"/>
-      <c r="I63" s="85" t="s">
+      <c r="G63" s="83" t="s">
+        <v>385</v>
+      </c>
+      <c r="H63" s="83" t="s">
+        <v>165</v>
+      </c>
+      <c r="I63" s="84" t="s">
         <v>280</v>
       </c>
-      <c r="J63" s="85" t="s">
+      <c r="J63" s="84" t="s">
         <v>290</v>
       </c>
-      <c r="K63" s="91" t="s">
+      <c r="K63" s="90" t="s">
         <v>344</v>
       </c>
-      <c r="L63" s="52"/>
-      <c r="M63" s="52"/>
-      <c r="N63" s="52"/>
-      <c r="O63" s="51"/>
-    </row>
-    <row r="64" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="63"/>
-      <c r="B64" s="86">
-        <f>ROW(B64) - ROW($B$9)</f>
+      <c r="L63" s="110">
+        <v>0.98</v>
+      </c>
+      <c r="M63" s="100">
+        <f t="shared" si="1"/>
+        <v>1.96</v>
+      </c>
+      <c r="N63" s="51"/>
+      <c r="O63" s="50"/>
+    </row>
+    <row r="64" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A64" s="62"/>
+      <c r="B64" s="85">
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="C64" s="87" t="s">
+      <c r="C64" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="D64" s="88">
+      <c r="D64" s="101">
         <v>2</v>
       </c>
-      <c r="E64" s="87" t="s">
+      <c r="E64" s="86" t="s">
         <v>166</v>
       </c>
-      <c r="F64" s="87" t="s">
+      <c r="F64" s="86" t="s">
         <v>242</v>
       </c>
-      <c r="G64" s="87"/>
-      <c r="H64" s="87"/>
-      <c r="I64" s="88"/>
-      <c r="J64" s="88" t="s">
+      <c r="G64" s="86" t="s">
+        <v>435</v>
+      </c>
+      <c r="H64" s="86" t="s">
+        <v>436</v>
+      </c>
+      <c r="I64" s="87"/>
+      <c r="J64" s="87" t="s">
         <v>291</v>
       </c>
-      <c r="K64" s="89" t="s">
+      <c r="K64" s="88" t="s">
         <v>345</v>
       </c>
-      <c r="L64" s="25"/>
-      <c r="M64" s="50"/>
-      <c r="N64" s="50"/>
-      <c r="O64" s="51"/>
-    </row>
-    <row r="65" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="63"/>
-      <c r="B65" s="90">
-        <f>ROW(B65) - ROW($B$9)</f>
+      <c r="L64" s="110">
+        <v>1.03</v>
+      </c>
+      <c r="M64" s="100">
+        <f t="shared" si="1"/>
+        <v>2.06</v>
+      </c>
+      <c r="N64" s="49"/>
+      <c r="O64" s="50"/>
+    </row>
+    <row r="65" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="62"/>
+      <c r="B65" s="89">
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
-      <c r="C65" s="83" t="s">
+      <c r="C65" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="D65" s="92">
+      <c r="D65" s="102">
         <v>4</v>
       </c>
-      <c r="E65" s="84" t="s">
+      <c r="E65" s="83" t="s">
         <v>167</v>
       </c>
-      <c r="F65" s="84" t="s">
+      <c r="F65" s="83" t="s">
         <v>243</v>
       </c>
-      <c r="G65" s="84"/>
-      <c r="H65" s="84"/>
-      <c r="I65" s="85"/>
-      <c r="J65" s="85"/>
-      <c r="K65" s="91"/>
-      <c r="L65" s="52"/>
-      <c r="M65" s="52"/>
-      <c r="N65" s="52"/>
-      <c r="O65" s="51"/>
-    </row>
-    <row r="66" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="63"/>
-      <c r="B66" s="86">
-        <f>ROW(B66) - ROW($B$9)</f>
+      <c r="G65" s="83"/>
+      <c r="H65" s="83"/>
+      <c r="I65" s="84"/>
+      <c r="J65" s="84"/>
+      <c r="K65" s="90"/>
+      <c r="L65" s="115"/>
+      <c r="M65" s="100">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N65" s="51"/>
+      <c r="O65" s="50"/>
+    </row>
+    <row r="66" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="62"/>
+      <c r="B66" s="85">
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="C66" s="87" t="s">
+      <c r="C66" s="86" t="s">
         <v>88</v>
       </c>
-      <c r="D66" s="88">
+      <c r="D66" s="101">
         <v>1</v>
       </c>
-      <c r="E66" s="87" t="s">
+      <c r="E66" s="86" t="s">
         <v>168</v>
       </c>
-      <c r="F66" s="87" t="s">
+      <c r="F66" s="86" t="s">
         <v>244</v>
       </c>
-      <c r="G66" s="87"/>
-      <c r="H66" s="87"/>
-      <c r="I66" s="88"/>
-      <c r="J66" s="88" t="s">
+      <c r="G66" s="86" t="s">
+        <v>437</v>
+      </c>
+      <c r="H66" s="86" t="s">
+        <v>168</v>
+      </c>
+      <c r="I66" s="87"/>
+      <c r="J66" s="87" t="s">
         <v>291</v>
       </c>
-      <c r="K66" s="89" t="s">
+      <c r="K66" s="88" t="s">
         <v>346</v>
       </c>
-      <c r="L66" s="25"/>
-      <c r="M66" s="50"/>
-      <c r="N66" s="50"/>
-      <c r="O66" s="51"/>
-    </row>
-    <row r="67" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="63"/>
-      <c r="B67" s="90">
-        <f>ROW(B67) - ROW($B$9)</f>
+      <c r="L66" s="110">
+        <v>0.11</v>
+      </c>
+      <c r="M66" s="100">
+        <f t="shared" si="1"/>
+        <v>0.11</v>
+      </c>
+      <c r="N66" s="49"/>
+      <c r="O66" s="50"/>
+    </row>
+    <row r="67" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="62"/>
+      <c r="B67" s="89">
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
-      <c r="C67" s="83" t="s">
+      <c r="C67" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="D67" s="92">
+      <c r="D67" s="102">
         <v>1</v>
       </c>
-      <c r="E67" s="84" t="s">
+      <c r="E67" s="83" t="s">
         <v>169</v>
       </c>
-      <c r="F67" s="84" t="s">
+      <c r="F67" s="83" t="s">
         <v>245</v>
       </c>
-      <c r="G67" s="84"/>
-      <c r="H67" s="84"/>
-      <c r="I67" s="85"/>
-      <c r="J67" s="85" t="s">
+      <c r="G67" s="83" t="s">
+        <v>438</v>
+      </c>
+      <c r="H67" s="83">
+        <v>317060016</v>
+      </c>
+      <c r="I67" s="84"/>
+      <c r="J67" s="84" t="s">
         <v>291</v>
       </c>
-      <c r="K67" s="91" t="s">
+      <c r="K67" s="90" t="s">
         <v>347</v>
       </c>
-      <c r="L67" s="52"/>
-      <c r="M67" s="52"/>
-      <c r="N67" s="52"/>
-      <c r="O67" s="51"/>
-    </row>
-    <row r="68" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="63"/>
-      <c r="B68" s="86">
-        <f>ROW(B68) - ROW($B$9)</f>
+      <c r="L67" s="110">
+        <v>6.95</v>
+      </c>
+      <c r="M67" s="100">
+        <f t="shared" si="1"/>
+        <v>6.95</v>
+      </c>
+      <c r="N67" s="51"/>
+      <c r="O67" s="50"/>
+    </row>
+    <row r="68" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A68" s="62"/>
+      <c r="B68" s="85">
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
-      <c r="C68" s="87" t="s">
+      <c r="C68" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="D68" s="88">
+      <c r="D68" s="101">
         <v>1</v>
       </c>
-      <c r="E68" s="87" t="s">
+      <c r="E68" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="F68" s="87" t="s">
+      <c r="F68" s="86" t="s">
         <v>246</v>
       </c>
-      <c r="G68" s="87"/>
-      <c r="H68" s="87"/>
-      <c r="I68" s="88"/>
-      <c r="J68" s="88" t="s">
+      <c r="G68" s="86" t="s">
+        <v>430</v>
+      </c>
+      <c r="H68" s="86">
+        <v>386</v>
+      </c>
+      <c r="I68" s="87"/>
+      <c r="J68" s="87" t="s">
         <v>291</v>
       </c>
-      <c r="K68" s="89" t="s">
+      <c r="K68" s="88" t="s">
         <v>348</v>
       </c>
-      <c r="L68" s="25"/>
-      <c r="M68" s="50"/>
-      <c r="N68" s="50"/>
-      <c r="O68" s="51"/>
-    </row>
-    <row r="69" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="63"/>
-      <c r="B69" s="90">
-        <f>ROW(B69) - ROW($B$9)</f>
+      <c r="L68" s="110">
+        <v>5</v>
+      </c>
+      <c r="M68" s="100">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="N68" s="49"/>
+      <c r="O68" s="50"/>
+    </row>
+    <row r="69" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A69" s="62"/>
+      <c r="B69" s="89">
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="C69" s="83" t="s">
+      <c r="C69" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="D69" s="92">
+      <c r="D69" s="102">
         <v>1</v>
       </c>
-      <c r="E69" s="84" t="s">
+      <c r="E69" s="83" t="s">
         <v>170</v>
       </c>
-      <c r="F69" s="84" t="s">
+      <c r="F69" s="83" t="s">
         <v>247</v>
       </c>
-      <c r="G69" s="84"/>
-      <c r="H69" s="84"/>
-      <c r="I69" s="85"/>
-      <c r="J69" s="85" t="s">
+      <c r="G69" s="83" t="s">
+        <v>439</v>
+      </c>
+      <c r="H69" s="83" t="s">
+        <v>170</v>
+      </c>
+      <c r="I69" s="84"/>
+      <c r="J69" s="84" t="s">
         <v>290</v>
       </c>
-      <c r="K69" s="91" t="s">
+      <c r="K69" s="90" t="s">
         <v>349</v>
       </c>
-      <c r="L69" s="52"/>
-      <c r="M69" s="52"/>
-      <c r="N69" s="52"/>
-      <c r="O69" s="51"/>
-    </row>
-    <row r="70" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="63"/>
-      <c r="B70" s="86">
-        <f>ROW(B70) - ROW($B$9)</f>
+      <c r="L69" s="110">
+        <v>0.76</v>
+      </c>
+      <c r="M69" s="100">
+        <f t="shared" si="1"/>
+        <v>0.76</v>
+      </c>
+      <c r="N69" s="51"/>
+      <c r="O69" s="50"/>
+    </row>
+    <row r="70" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A70" s="62"/>
+      <c r="B70" s="85">
+        <f t="shared" si="2"/>
         <v>61</v>
       </c>
-      <c r="C70" s="87" t="s">
+      <c r="C70" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="D70" s="88">
+      <c r="D70" s="101">
         <v>1</v>
       </c>
-      <c r="E70" s="87" t="s">
+      <c r="E70" s="86" t="s">
         <v>171</v>
       </c>
-      <c r="F70" s="87" t="s">
+      <c r="F70" s="86" t="s">
         <v>248</v>
       </c>
-      <c r="G70" s="87"/>
-      <c r="H70" s="87"/>
-      <c r="I70" s="88" t="s">
+      <c r="G70" s="86" t="s">
+        <v>440</v>
+      </c>
+      <c r="H70" s="86" t="s">
+        <v>171</v>
+      </c>
+      <c r="I70" s="87" t="s">
         <v>281</v>
       </c>
-      <c r="J70" s="88" t="s">
+      <c r="J70" s="87" t="s">
         <v>290</v>
       </c>
-      <c r="K70" s="89" t="s">
+      <c r="K70" s="88" t="s">
         <v>350</v>
       </c>
-      <c r="L70" s="25"/>
-      <c r="M70" s="50"/>
-      <c r="N70" s="50"/>
-      <c r="O70" s="51"/>
-    </row>
-    <row r="71" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="63"/>
-      <c r="B71" s="90">
-        <f>ROW(B71) - ROW($B$9)</f>
+      <c r="L70" s="110">
+        <v>0.45</v>
+      </c>
+      <c r="M70" s="100">
+        <f t="shared" si="1"/>
+        <v>0.45</v>
+      </c>
+      <c r="N70" s="49"/>
+      <c r="O70" s="50"/>
+    </row>
+    <row r="71" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="62"/>
+      <c r="B71" s="89">
+        <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="C71" s="83" t="s">
+      <c r="C71" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="D71" s="92">
+      <c r="D71" s="102">
         <v>2</v>
       </c>
-      <c r="E71" s="84" t="s">
+      <c r="E71" s="83" t="s">
         <v>172</v>
       </c>
-      <c r="F71" s="84" t="s">
+      <c r="F71" s="83" t="s">
         <v>249</v>
       </c>
-      <c r="G71" s="84"/>
-      <c r="H71" s="84"/>
-      <c r="I71" s="85" t="s">
+      <c r="G71" s="83" t="s">
+        <v>441</v>
+      </c>
+      <c r="H71" s="83" t="s">
+        <v>172</v>
+      </c>
+      <c r="I71" s="84" t="s">
         <v>282</v>
       </c>
-      <c r="J71" s="85" t="s">
+      <c r="J71" s="84" t="s">
         <v>290</v>
       </c>
-      <c r="K71" s="91" t="s">
+      <c r="K71" s="90" t="s">
         <v>351</v>
       </c>
-      <c r="L71" s="52"/>
-      <c r="M71" s="52"/>
-      <c r="N71" s="52"/>
-      <c r="O71" s="51"/>
-    </row>
-    <row r="72" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="63"/>
-      <c r="B72" s="86">
-        <f>ROW(B72) - ROW($B$9)</f>
+      <c r="L71" s="110">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M71" s="100">
+        <f>D71*L71</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N71" s="51"/>
+      <c r="O71" s="50"/>
+    </row>
+    <row r="72" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A72" s="62"/>
+      <c r="B72" s="85">
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
-      <c r="C72" s="87" t="s">
+      <c r="C72" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="D72" s="88">
+      <c r="D72" s="101">
         <v>2</v>
       </c>
-      <c r="E72" s="87" t="s">
+      <c r="E72" s="86" t="s">
         <v>173</v>
       </c>
-      <c r="F72" s="87" t="s">
+      <c r="F72" s="86" t="s">
         <v>250</v>
       </c>
-      <c r="G72" s="87"/>
-      <c r="H72" s="87"/>
-      <c r="I72" s="88" t="s">
+      <c r="G72" s="86" t="s">
+        <v>442</v>
+      </c>
+      <c r="H72" s="86" t="s">
+        <v>443</v>
+      </c>
+      <c r="I72" s="87" t="s">
         <v>283</v>
       </c>
-      <c r="J72" s="88" t="s">
+      <c r="J72" s="87" t="s">
         <v>290</v>
       </c>
-      <c r="K72" s="89" t="s">
+      <c r="K72" s="88" t="s">
         <v>352</v>
       </c>
-      <c r="L72" s="25"/>
-      <c r="M72" s="50"/>
-      <c r="N72" s="50"/>
-      <c r="O72" s="51"/>
-    </row>
-    <row r="73" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="63"/>
-      <c r="B73" s="90">
-        <f>ROW(B73) - ROW($B$9)</f>
+      <c r="L72" s="110">
+        <v>0.4</v>
+      </c>
+      <c r="M72" s="100">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="N72" s="49"/>
+      <c r="O72" s="50"/>
+    </row>
+    <row r="73" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A73" s="62"/>
+      <c r="B73" s="89">
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
-      <c r="C73" s="83" t="s">
+      <c r="C73" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="D73" s="92">
+      <c r="D73" s="102">
         <v>1</v>
       </c>
-      <c r="E73" s="84" t="s">
+      <c r="E73" s="83" t="s">
         <v>174</v>
       </c>
-      <c r="F73" s="84" t="s">
+      <c r="F73" s="83" t="s">
         <v>251</v>
       </c>
-      <c r="G73" s="84"/>
-      <c r="H73" s="84"/>
-      <c r="I73" s="85" t="s">
+      <c r="G73" s="83" t="s">
+        <v>444</v>
+      </c>
+      <c r="H73" s="83" t="s">
+        <v>445</v>
+      </c>
+      <c r="I73" s="84" t="s">
         <v>275</v>
       </c>
-      <c r="J73" s="85" t="s">
+      <c r="J73" s="84" t="s">
         <v>290</v>
       </c>
-      <c r="K73" s="91" t="s">
+      <c r="K73" s="90" t="s">
         <v>353</v>
       </c>
-      <c r="L73" s="52"/>
-      <c r="M73" s="52"/>
-      <c r="N73" s="52"/>
-      <c r="O73" s="51"/>
+      <c r="L73" s="110">
+        <v>0.38</v>
+      </c>
+      <c r="M73" s="100">
+        <f t="shared" si="1"/>
+        <v>0.38</v>
+      </c>
+      <c r="N73" s="51"/>
+      <c r="O73" s="50"/>
     </row>
     <row r="74" spans="1:15" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="63"/>
-      <c r="B74" s="86">
-        <f>ROW(B74) - ROW($B$9)</f>
+      <c r="A74" s="62"/>
+      <c r="B74" s="85">
+        <f t="shared" ref="B74:B92" si="3">ROW(B74) - ROW($B$9)</f>
         <v>65</v>
       </c>
-      <c r="C74" s="87" t="s">
+      <c r="C74" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="D74" s="88">
+      <c r="D74" s="101">
         <v>9</v>
       </c>
-      <c r="E74" s="87" t="s">
+      <c r="E74" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="F74" s="87" t="s">
+      <c r="F74" s="86" t="s">
         <v>252</v>
       </c>
-      <c r="G74" s="87"/>
-      <c r="H74" s="87"/>
-      <c r="I74" s="88" t="s">
+      <c r="G74" s="86" t="s">
+        <v>446</v>
+      </c>
+      <c r="H74" s="86" t="s">
+        <v>175</v>
+      </c>
+      <c r="I74" s="87" t="s">
         <v>284</v>
       </c>
-      <c r="J74" s="88" t="s">
+      <c r="J74" s="87" t="s">
         <v>290</v>
       </c>
-      <c r="K74" s="89" t="s">
+      <c r="K74" s="88" t="s">
         <v>354</v>
       </c>
-      <c r="L74" s="25"/>
-      <c r="M74" s="50"/>
-      <c r="N74" s="50"/>
-      <c r="O74" s="51"/>
-    </row>
-    <row r="75" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="63"/>
-      <c r="B75" s="90">
-        <f>ROW(B75) - ROW($B$9)</f>
+      <c r="L74" s="113">
+        <v>0.1</v>
+      </c>
+      <c r="M74" s="100">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="N74" s="49"/>
+      <c r="O74" s="50"/>
+    </row>
+    <row r="75" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A75" s="62"/>
+      <c r="B75" s="89">
+        <f t="shared" si="3"/>
         <v>66</v>
       </c>
-      <c r="C75" s="83" t="s">
+      <c r="C75" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="D75" s="92">
+      <c r="D75" s="102">
         <v>3</v>
       </c>
-      <c r="E75" s="84" t="s">
+      <c r="E75" s="83" t="s">
         <v>173</v>
       </c>
-      <c r="F75" s="84" t="s">
+      <c r="F75" s="83" t="s">
         <v>253</v>
       </c>
-      <c r="G75" s="84"/>
-      <c r="H75" s="84"/>
-      <c r="I75" s="85" t="s">
+      <c r="G75" s="83" t="s">
+        <v>393</v>
+      </c>
+      <c r="H75" s="83" t="s">
+        <v>447</v>
+      </c>
+      <c r="I75" s="84" t="s">
         <v>283</v>
       </c>
-      <c r="J75" s="85" t="s">
+      <c r="J75" s="84" t="s">
         <v>290</v>
       </c>
-      <c r="K75" s="91" t="s">
+      <c r="K75" s="90" t="s">
         <v>355</v>
       </c>
-      <c r="L75" s="52"/>
-      <c r="M75" s="52"/>
-      <c r="N75" s="52"/>
-      <c r="O75" s="51"/>
-    </row>
-    <row r="76" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="63"/>
-      <c r="B76" s="86">
-        <f>ROW(B76) - ROW($B$9)</f>
+      <c r="L75" s="110">
+        <v>0.48</v>
+      </c>
+      <c r="M75" s="100">
+        <f t="shared" ref="M75:M92" si="4">D75*L75</f>
+        <v>1.44</v>
+      </c>
+      <c r="N75" s="51"/>
+      <c r="O75" s="50"/>
+    </row>
+    <row r="76" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A76" s="62"/>
+      <c r="B76" s="85">
+        <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="C76" s="87" t="s">
+      <c r="C76" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="D76" s="88">
+      <c r="D76" s="101">
         <v>1</v>
       </c>
-      <c r="E76" s="87" t="s">
+      <c r="E76" s="86" t="s">
         <v>176</v>
       </c>
-      <c r="F76" s="87" t="s">
+      <c r="F76" s="86" t="s">
         <v>254</v>
       </c>
-      <c r="G76" s="87"/>
-      <c r="H76" s="87"/>
-      <c r="I76" s="88" t="s">
+      <c r="G76" s="86" t="s">
+        <v>448</v>
+      </c>
+      <c r="H76" s="86" t="s">
+        <v>176</v>
+      </c>
+      <c r="I76" s="87" t="s">
         <v>285</v>
       </c>
-      <c r="J76" s="88" t="s">
+      <c r="J76" s="87" t="s">
         <v>290</v>
       </c>
-      <c r="K76" s="89" t="s">
+      <c r="K76" s="88" t="s">
         <v>356</v>
       </c>
-      <c r="L76" s="25"/>
-      <c r="M76" s="50"/>
-      <c r="N76" s="50"/>
-      <c r="O76" s="51"/>
-    </row>
-    <row r="77" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="63"/>
-      <c r="B77" s="90">
-        <f>ROW(B77) - ROW($B$9)</f>
+      <c r="L76" s="110">
+        <v>0.46</v>
+      </c>
+      <c r="M76" s="100">
+        <f t="shared" si="4"/>
+        <v>0.46</v>
+      </c>
+      <c r="N76" s="49"/>
+      <c r="O76" s="50"/>
+    </row>
+    <row r="77" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A77" s="62"/>
+      <c r="B77" s="89">
+        <f t="shared" si="3"/>
         <v>68</v>
       </c>
-      <c r="C77" s="83" t="s">
+      <c r="C77" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="D77" s="92">
+      <c r="D77" s="102">
         <v>1</v>
       </c>
-      <c r="E77" s="84" t="s">
+      <c r="E77" s="83" t="s">
         <v>177</v>
       </c>
-      <c r="F77" s="84" t="s">
+      <c r="F77" s="83" t="s">
         <v>255</v>
       </c>
-      <c r="G77" s="84"/>
-      <c r="H77" s="84"/>
-      <c r="I77" s="85" t="s">
+      <c r="G77" s="83" t="s">
+        <v>390</v>
+      </c>
+      <c r="H77" s="83" t="s">
+        <v>177</v>
+      </c>
+      <c r="I77" s="84" t="s">
         <v>286</v>
       </c>
-      <c r="J77" s="85" t="s">
+      <c r="J77" s="84" t="s">
         <v>290</v>
       </c>
-      <c r="K77" s="91" t="s">
+      <c r="K77" s="90" t="s">
         <v>357</v>
       </c>
-      <c r="L77" s="52"/>
-      <c r="M77" s="52"/>
-      <c r="N77" s="52"/>
-      <c r="O77" s="51"/>
-    </row>
-    <row r="78" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="63"/>
-      <c r="B78" s="86">
-        <f>ROW(B78) - ROW($B$9)</f>
+      <c r="L77" s="110">
+        <v>0.21</v>
+      </c>
+      <c r="M77" s="100">
+        <f t="shared" si="4"/>
+        <v>0.21</v>
+      </c>
+      <c r="N77" s="51"/>
+      <c r="O77" s="50"/>
+    </row>
+    <row r="78" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A78" s="62"/>
+      <c r="B78" s="85">
+        <f t="shared" si="3"/>
         <v>69</v>
       </c>
-      <c r="C78" s="87" t="s">
+      <c r="C78" s="86" t="s">
         <v>100</v>
       </c>
-      <c r="D78" s="88">
+      <c r="D78" s="101">
         <v>2</v>
       </c>
-      <c r="E78" s="87" t="s">
+      <c r="E78" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="F78" s="87" t="s">
+      <c r="F78" s="86" t="s">
         <v>256</v>
       </c>
-      <c r="G78" s="87"/>
-      <c r="H78" s="87"/>
-      <c r="I78" s="88" t="s">
+      <c r="G78" s="86" t="s">
+        <v>449</v>
+      </c>
+      <c r="H78" s="86" t="s">
+        <v>450</v>
+      </c>
+      <c r="I78" s="87" t="s">
         <v>287</v>
       </c>
-      <c r="J78" s="88" t="s">
+      <c r="J78" s="87" t="s">
         <v>290</v>
       </c>
-      <c r="K78" s="89" t="s">
+      <c r="K78" s="88" t="s">
         <v>358</v>
       </c>
-      <c r="L78" s="25"/>
-      <c r="M78" s="50"/>
-      <c r="N78" s="50"/>
-      <c r="O78" s="51"/>
-    </row>
-    <row r="79" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="63"/>
-      <c r="B79" s="90">
-        <f>ROW(B79) - ROW($B$9)</f>
+      <c r="L78" s="110">
+        <v>0.64</v>
+      </c>
+      <c r="M78" s="100">
+        <f t="shared" si="4"/>
+        <v>1.28</v>
+      </c>
+      <c r="N78" s="49"/>
+      <c r="O78" s="50"/>
+    </row>
+    <row r="79" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A79" s="62"/>
+      <c r="B79" s="89">
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="C79" s="83" t="s">
+      <c r="C79" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="D79" s="92">
+      <c r="D79" s="102">
         <v>2</v>
       </c>
-      <c r="E79" s="84" t="s">
+      <c r="E79" s="83" t="s">
         <v>179</v>
       </c>
-      <c r="F79" s="84" t="s">
+      <c r="F79" s="83" t="s">
         <v>257</v>
       </c>
-      <c r="G79" s="84"/>
-      <c r="H79" s="84"/>
-      <c r="I79" s="85" t="s">
+      <c r="G79" s="83" t="s">
+        <v>451</v>
+      </c>
+      <c r="H79" s="83" t="s">
+        <v>452</v>
+      </c>
+      <c r="I79" s="84" t="s">
         <v>275</v>
       </c>
-      <c r="J79" s="85" t="s">
+      <c r="J79" s="84" t="s">
         <v>290</v>
       </c>
-      <c r="K79" s="91" t="s">
+      <c r="K79" s="90" t="s">
         <v>359</v>
       </c>
-      <c r="L79" s="52"/>
-      <c r="M79" s="52"/>
-      <c r="N79" s="52"/>
-      <c r="O79" s="51"/>
-    </row>
-    <row r="80" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="63"/>
-      <c r="B80" s="86">
-        <f>ROW(B80) - ROW($B$9)</f>
+      <c r="L79" s="113">
+        <v>0.27</v>
+      </c>
+      <c r="M79" s="100">
+        <f t="shared" si="4"/>
+        <v>0.54</v>
+      </c>
+      <c r="N79" s="51"/>
+      <c r="O79" s="50"/>
+    </row>
+    <row r="80" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A80" s="62"/>
+      <c r="B80" s="85">
+        <f t="shared" si="3"/>
         <v>71</v>
       </c>
-      <c r="C80" s="87" t="s">
+      <c r="C80" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="D80" s="88">
+      <c r="D80" s="101">
         <v>1</v>
       </c>
-      <c r="E80" s="87" t="s">
+      <c r="E80" s="86" t="s">
         <v>180</v>
       </c>
-      <c r="F80" s="87" t="s">
+      <c r="F80" s="86" t="s">
         <v>258</v>
       </c>
-      <c r="G80" s="87"/>
-      <c r="H80" s="87"/>
-      <c r="I80" s="88" t="s">
+      <c r="G80" s="86" t="s">
+        <v>411</v>
+      </c>
+      <c r="H80" s="86" t="s">
+        <v>453</v>
+      </c>
+      <c r="I80" s="87" t="s">
         <v>287</v>
       </c>
-      <c r="J80" s="88" t="s">
+      <c r="J80" s="87" t="s">
         <v>290</v>
       </c>
-      <c r="K80" s="89" t="s">
+      <c r="K80" s="88" t="s">
         <v>360</v>
       </c>
-      <c r="L80" s="25"/>
-      <c r="M80" s="50"/>
-      <c r="N80" s="50"/>
-      <c r="O80" s="51"/>
-    </row>
-    <row r="81" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="63"/>
-      <c r="B81" s="90">
-        <f>ROW(B81) - ROW($B$9)</f>
+      <c r="L80" s="110">
+        <v>0.95</v>
+      </c>
+      <c r="M80" s="100">
+        <f t="shared" si="4"/>
+        <v>0.95</v>
+      </c>
+      <c r="N80" s="49"/>
+      <c r="O80" s="50"/>
+    </row>
+    <row r="81" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A81" s="62"/>
+      <c r="B81" s="89">
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
-      <c r="C81" s="83" t="s">
+      <c r="C81" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="D81" s="92">
+      <c r="D81" s="102">
         <v>1</v>
       </c>
-      <c r="E81" s="84" t="s">
+      <c r="E81" s="83" t="s">
         <v>181</v>
       </c>
-      <c r="F81" s="84" t="s">
+      <c r="F81" s="83" t="s">
         <v>259</v>
       </c>
-      <c r="G81" s="84"/>
-      <c r="H81" s="84"/>
-      <c r="I81" s="85" t="s">
+      <c r="G81" s="83" t="s">
+        <v>454</v>
+      </c>
+      <c r="H81" s="83" t="s">
+        <v>455</v>
+      </c>
+      <c r="I81" s="84" t="s">
         <v>288</v>
       </c>
-      <c r="J81" s="85" t="s">
+      <c r="J81" s="84" t="s">
         <v>290</v>
       </c>
-      <c r="K81" s="91" t="s">
+      <c r="K81" s="90" t="s">
         <v>361</v>
       </c>
-      <c r="L81" s="52"/>
-      <c r="M81" s="52"/>
-      <c r="N81" s="52"/>
-      <c r="O81" s="51"/>
-    </row>
-    <row r="82" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="63"/>
-      <c r="B82" s="86">
-        <f>ROW(B82) - ROW($B$9)</f>
+      <c r="L81" s="110">
+        <v>1.45</v>
+      </c>
+      <c r="M81" s="100">
+        <f t="shared" si="4"/>
+        <v>1.45</v>
+      </c>
+      <c r="N81" s="51"/>
+      <c r="O81" s="50"/>
+    </row>
+    <row r="82" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A82" s="62"/>
+      <c r="B82" s="85">
+        <f t="shared" si="3"/>
         <v>73</v>
       </c>
-      <c r="C82" s="87" t="s">
+      <c r="C82" s="86" t="s">
         <v>104</v>
       </c>
-      <c r="D82" s="88">
+      <c r="D82" s="101">
         <v>1</v>
       </c>
-      <c r="E82" s="87" t="s">
+      <c r="E82" s="86" t="s">
         <v>182</v>
       </c>
-      <c r="F82" s="87" t="s">
+      <c r="F82" s="86" t="s">
         <v>260</v>
       </c>
-      <c r="G82" s="87"/>
-      <c r="H82" s="87"/>
-      <c r="I82" s="88" t="s">
+      <c r="G82" s="86" t="s">
+        <v>454</v>
+      </c>
+      <c r="H82" s="86" t="s">
+        <v>456</v>
+      </c>
+      <c r="I82" s="87" t="s">
         <v>275</v>
       </c>
-      <c r="J82" s="88" t="s">
+      <c r="J82" s="87" t="s">
         <v>290</v>
       </c>
-      <c r="K82" s="89" t="s">
+      <c r="K82" s="88" t="s">
         <v>362</v>
       </c>
-      <c r="L82" s="25"/>
-      <c r="M82" s="50"/>
-      <c r="N82" s="50"/>
-      <c r="O82" s="51"/>
-    </row>
-    <row r="83" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="63"/>
-      <c r="B83" s="90">
-        <f>ROW(B83) - ROW($B$9)</f>
+      <c r="L82" s="110">
+        <v>0.27</v>
+      </c>
+      <c r="M82" s="100">
+        <f t="shared" si="4"/>
+        <v>0.27</v>
+      </c>
+      <c r="N82" s="49"/>
+      <c r="O82" s="50"/>
+    </row>
+    <row r="83" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A83" s="62"/>
+      <c r="B83" s="89">
+        <f t="shared" si="3"/>
         <v>74</v>
       </c>
-      <c r="C83" s="83" t="s">
+      <c r="C83" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="D83" s="92">
+      <c r="D83" s="102">
         <v>1</v>
       </c>
-      <c r="E83" s="84" t="s">
+      <c r="E83" s="83" t="s">
         <v>178</v>
       </c>
-      <c r="F83" s="84" t="s">
+      <c r="F83" s="83" t="s">
         <v>261</v>
       </c>
-      <c r="G83" s="84"/>
-      <c r="H83" s="84"/>
-      <c r="I83" s="85" t="s">
+      <c r="G83" s="83" t="s">
+        <v>451</v>
+      </c>
+      <c r="H83" s="83" t="s">
+        <v>457</v>
+      </c>
+      <c r="I83" s="84" t="s">
         <v>288</v>
       </c>
-      <c r="J83" s="85" t="s">
+      <c r="J83" s="84" t="s">
         <v>290</v>
       </c>
-      <c r="K83" s="91" t="s">
+      <c r="K83" s="90" t="s">
         <v>363</v>
       </c>
-      <c r="L83" s="52"/>
-      <c r="M83" s="52"/>
-      <c r="N83" s="52"/>
-      <c r="O83" s="51"/>
-    </row>
-    <row r="84" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="63"/>
-      <c r="B84" s="86">
-        <f>ROW(B84) - ROW($B$9)</f>
+      <c r="L83" s="110">
+        <v>1.43</v>
+      </c>
+      <c r="M83" s="100">
+        <f t="shared" si="4"/>
+        <v>1.43</v>
+      </c>
+      <c r="N83" s="51"/>
+      <c r="O83" s="50"/>
+    </row>
+    <row r="84" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A84" s="62"/>
+      <c r="B84" s="85">
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="C84" s="87" t="s">
+      <c r="C84" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="D84" s="88">
+      <c r="D84" s="101">
         <v>1</v>
       </c>
-      <c r="E84" s="87" t="s">
+      <c r="E84" s="86" t="s">
         <v>183</v>
       </c>
-      <c r="F84" s="87" t="s">
+      <c r="F84" s="86" t="s">
         <v>262</v>
       </c>
-      <c r="G84" s="87"/>
-      <c r="H84" s="87"/>
-      <c r="I84" s="88" t="s">
+      <c r="G84" s="86" t="s">
+        <v>458</v>
+      </c>
+      <c r="H84" s="86" t="s">
+        <v>459</v>
+      </c>
+      <c r="I84" s="87" t="s">
         <v>275</v>
       </c>
-      <c r="J84" s="88" t="s">
+      <c r="J84" s="87" t="s">
         <v>290</v>
       </c>
-      <c r="K84" s="89" t="s">
+      <c r="K84" s="88" t="s">
         <v>364</v>
       </c>
-      <c r="L84" s="25"/>
-      <c r="M84" s="50"/>
-      <c r="N84" s="50"/>
-      <c r="O84" s="51"/>
-    </row>
-    <row r="85" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="63"/>
-      <c r="B85" s="90">
-        <f>ROW(B85) - ROW($B$9)</f>
+      <c r="L84" s="113">
+        <v>0.22</v>
+      </c>
+      <c r="M84" s="100">
+        <f t="shared" si="4"/>
+        <v>0.22</v>
+      </c>
+      <c r="N84" s="49"/>
+      <c r="O84" s="50"/>
+    </row>
+    <row r="85" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A85" s="62"/>
+      <c r="B85" s="89">
+        <f t="shared" si="3"/>
         <v>76</v>
       </c>
-      <c r="C85" s="83" t="s">
+      <c r="C85" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="D85" s="92">
+      <c r="D85" s="102">
         <v>1</v>
       </c>
-      <c r="E85" s="84" t="s">
+      <c r="E85" s="83" t="s">
         <v>180</v>
       </c>
-      <c r="F85" s="84" t="s">
+      <c r="F85" s="83" t="s">
         <v>263</v>
       </c>
-      <c r="G85" s="84"/>
-      <c r="H85" s="84"/>
-      <c r="I85" s="85" t="s">
+      <c r="G85" s="83" t="s">
+        <v>449</v>
+      </c>
+      <c r="H85" s="83" t="s">
+        <v>460</v>
+      </c>
+      <c r="I85" s="84" t="s">
         <v>287</v>
       </c>
-      <c r="J85" s="85" t="s">
+      <c r="J85" s="84" t="s">
         <v>290</v>
       </c>
-      <c r="K85" s="91" t="s">
+      <c r="K85" s="90" t="s">
         <v>365</v>
       </c>
-      <c r="L85" s="52"/>
-      <c r="M85" s="52"/>
-      <c r="N85" s="52"/>
-      <c r="O85" s="51"/>
-    </row>
-    <row r="86" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="63"/>
-      <c r="B86" s="86">
-        <f>ROW(B86) - ROW($B$9)</f>
+      <c r="L85" s="110">
+        <v>0.61</v>
+      </c>
+      <c r="M85" s="100">
+        <f t="shared" si="4"/>
+        <v>0.61</v>
+      </c>
+      <c r="N85" s="51"/>
+      <c r="O85" s="50"/>
+    </row>
+    <row r="86" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A86" s="62"/>
+      <c r="B86" s="85">
+        <f t="shared" si="3"/>
         <v>77</v>
       </c>
-      <c r="C86" s="87" t="s">
+      <c r="C86" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="D86" s="88">
+      <c r="D86" s="101">
         <v>1</v>
       </c>
-      <c r="E86" s="87" t="s">
+      <c r="E86" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="F86" s="87" t="s">
+      <c r="F86" s="86" t="s">
         <v>264</v>
       </c>
-      <c r="G86" s="87"/>
-      <c r="H86" s="87"/>
-      <c r="I86" s="88" t="s">
+      <c r="G86" s="86" t="s">
+        <v>449</v>
+      </c>
+      <c r="H86" s="86" t="s">
+        <v>461</v>
+      </c>
+      <c r="I86" s="87" t="s">
         <v>287</v>
       </c>
-      <c r="J86" s="88" t="s">
+      <c r="J86" s="87" t="s">
         <v>290</v>
       </c>
-      <c r="K86" s="89" t="s">
+      <c r="K86" s="88" t="s">
         <v>366</v>
       </c>
-      <c r="L86" s="25"/>
-      <c r="M86" s="50"/>
-      <c r="N86" s="50"/>
-      <c r="O86" s="51"/>
-    </row>
-    <row r="87" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="63"/>
-      <c r="B87" s="90">
-        <f>ROW(B87) - ROW($B$9)</f>
+      <c r="L86" s="110">
+        <v>0.65</v>
+      </c>
+      <c r="M86" s="100">
+        <f t="shared" si="4"/>
+        <v>0.65</v>
+      </c>
+      <c r="N86" s="49"/>
+      <c r="O86" s="50"/>
+    </row>
+    <row r="87" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A87" s="62"/>
+      <c r="B87" s="89">
+        <f t="shared" si="3"/>
         <v>78</v>
       </c>
-      <c r="C87" s="83" t="s">
+      <c r="C87" s="82" t="s">
         <v>109</v>
       </c>
-      <c r="D87" s="92">
+      <c r="D87" s="102">
         <v>2</v>
       </c>
-      <c r="E87" s="84" t="s">
+      <c r="E87" s="83" t="s">
         <v>184</v>
       </c>
-      <c r="F87" s="84" t="s">
+      <c r="F87" s="83" t="s">
         <v>265</v>
       </c>
-      <c r="G87" s="84"/>
-      <c r="H87" s="84"/>
-      <c r="I87" s="85" t="s">
+      <c r="G87" s="83" t="s">
+        <v>454</v>
+      </c>
+      <c r="H87" s="83" t="s">
+        <v>462</v>
+      </c>
+      <c r="I87" s="84" t="s">
         <v>275</v>
       </c>
-      <c r="J87" s="85" t="s">
+      <c r="J87" s="84" t="s">
         <v>290</v>
       </c>
-      <c r="K87" s="91" t="s">
+      <c r="K87" s="90" t="s">
         <v>367</v>
       </c>
-      <c r="L87" s="52"/>
-      <c r="M87" s="52"/>
-      <c r="N87" s="52"/>
-      <c r="O87" s="51"/>
+      <c r="L87" s="110">
+        <v>0.46</v>
+      </c>
+      <c r="M87" s="100">
+        <f t="shared" si="4"/>
+        <v>0.92</v>
+      </c>
+      <c r="N87" s="51"/>
+      <c r="O87" s="50"/>
     </row>
     <row r="88" spans="1:15" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="63"/>
-      <c r="B88" s="86">
-        <f>ROW(B88) - ROW($B$9)</f>
+      <c r="A88" s="62"/>
+      <c r="B88" s="85">
+        <f t="shared" si="3"/>
         <v>79</v>
       </c>
-      <c r="C88" s="87" t="s">
+      <c r="C88" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="D88" s="88">
+      <c r="D88" s="101">
         <v>16</v>
       </c>
-      <c r="E88" s="87" t="s">
+      <c r="E88" s="86" t="s">
         <v>185</v>
       </c>
-      <c r="F88" s="87" t="s">
+      <c r="F88" s="86" t="s">
         <v>266</v>
       </c>
-      <c r="G88" s="87"/>
-      <c r="H88" s="87"/>
-      <c r="I88" s="88" t="s">
+      <c r="G88" s="86" t="s">
+        <v>413</v>
+      </c>
+      <c r="H88" s="86" t="s">
+        <v>463</v>
+      </c>
+      <c r="I88" s="87" t="s">
         <v>275</v>
       </c>
-      <c r="J88" s="88" t="s">
+      <c r="J88" s="87" t="s">
         <v>290</v>
       </c>
-      <c r="K88" s="89" t="s">
+      <c r="K88" s="88" t="s">
         <v>368</v>
       </c>
-      <c r="L88" s="25"/>
-      <c r="M88" s="50"/>
-      <c r="N88" s="50"/>
-      <c r="O88" s="51"/>
-    </row>
-    <row r="89" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="63"/>
-      <c r="B89" s="90">
-        <f>ROW(B89) - ROW($B$9)</f>
+      <c r="L88" s="110">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M88" s="100">
+        <f t="shared" si="4"/>
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="N88" s="49"/>
+      <c r="O88" s="50"/>
+    </row>
+    <row r="89" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A89" s="62"/>
+      <c r="B89" s="89">
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="C89" s="83" t="s">
+      <c r="C89" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="D89" s="92">
+      <c r="D89" s="102">
         <v>8</v>
       </c>
-      <c r="E89" s="84" t="s">
+      <c r="E89" s="83" t="s">
         <v>186</v>
       </c>
-      <c r="F89" s="84" t="s">
+      <c r="F89" s="83" t="s">
         <v>267</v>
       </c>
-      <c r="G89" s="84"/>
-      <c r="H89" s="84"/>
-      <c r="I89" s="85" t="s">
+      <c r="G89" s="83" t="s">
+        <v>464</v>
+      </c>
+      <c r="H89" s="83" t="s">
+        <v>465</v>
+      </c>
+      <c r="I89" s="84" t="s">
         <v>275</v>
       </c>
-      <c r="J89" s="85" t="s">
+      <c r="J89" s="84" t="s">
         <v>290</v>
       </c>
-      <c r="K89" s="91" t="s">
+      <c r="K89" s="90" t="s">
         <v>369</v>
       </c>
-      <c r="L89" s="52"/>
-      <c r="M89" s="52"/>
-      <c r="N89" s="52"/>
-      <c r="O89" s="51"/>
-    </row>
-    <row r="90" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="63"/>
-      <c r="B90" s="86">
-        <f>ROW(B90) - ROW($B$9)</f>
+      <c r="L89" s="110">
+        <v>3.81</v>
+      </c>
+      <c r="M89" s="100">
+        <f t="shared" si="4"/>
+        <v>30.48</v>
+      </c>
+      <c r="N89" s="51"/>
+      <c r="O89" s="50"/>
+    </row>
+    <row r="90" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A90" s="62"/>
+      <c r="B90" s="85">
+        <f t="shared" si="3"/>
         <v>81</v>
       </c>
-      <c r="C90" s="87" t="s">
+      <c r="C90" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="D90" s="88">
+      <c r="D90" s="101">
         <v>1</v>
       </c>
-      <c r="E90" s="87" t="s">
+      <c r="E90" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="F90" s="87" t="s">
+      <c r="F90" s="86" t="s">
         <v>268</v>
       </c>
-      <c r="G90" s="87"/>
-      <c r="H90" s="87"/>
-      <c r="I90" s="88"/>
-      <c r="J90" s="88" t="s">
+      <c r="G90" s="86" t="s">
+        <v>466</v>
+      </c>
+      <c r="H90" s="86" t="s">
+        <v>467</v>
+      </c>
+      <c r="I90" s="87"/>
+      <c r="J90" s="87" t="s">
         <v>291</v>
       </c>
-      <c r="K90" s="89" t="s">
+      <c r="K90" s="88" t="s">
         <v>370</v>
       </c>
-      <c r="L90" s="25"/>
-      <c r="M90" s="50"/>
-      <c r="N90" s="50"/>
-      <c r="O90" s="51"/>
-    </row>
-    <row r="91" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="63"/>
-      <c r="B91" s="90">
-        <f>ROW(B91) - ROW($B$9)</f>
+      <c r="L90" s="110">
+        <v>0.61</v>
+      </c>
+      <c r="M90" s="100">
+        <f t="shared" si="4"/>
+        <v>0.61</v>
+      </c>
+      <c r="N90" s="49"/>
+      <c r="O90" s="50"/>
+    </row>
+    <row r="91" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A91" s="62"/>
+      <c r="B91" s="89">
+        <f t="shared" si="3"/>
         <v>82</v>
       </c>
-      <c r="C91" s="83" t="s">
+      <c r="C91" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="D91" s="92">
+      <c r="D91" s="102">
         <v>1</v>
       </c>
-      <c r="E91" s="84" t="s">
+      <c r="E91" s="83" t="s">
         <v>187</v>
       </c>
-      <c r="F91" s="84" t="s">
+      <c r="F91" s="83" t="s">
         <v>269</v>
       </c>
-      <c r="G91" s="84"/>
-      <c r="H91" s="84"/>
-      <c r="I91" s="85"/>
-      <c r="J91" s="85" t="s">
+      <c r="G91" s="83" t="s">
+        <v>468</v>
+      </c>
+      <c r="H91" s="83" t="s">
+        <v>469</v>
+      </c>
+      <c r="I91" s="84"/>
+      <c r="J91" s="84" t="s">
         <v>291</v>
       </c>
-      <c r="K91" s="91" t="s">
+      <c r="K91" s="90" t="s">
         <v>371</v>
       </c>
-      <c r="L91" s="52"/>
-      <c r="M91" s="52"/>
-      <c r="N91" s="52"/>
-      <c r="O91" s="51"/>
-    </row>
-    <row r="92" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="63"/>
-      <c r="B92" s="86">
-        <f>ROW(B92) - ROW($B$9)</f>
+      <c r="L91" s="110">
+        <v>0.79</v>
+      </c>
+      <c r="M91" s="100">
+        <f t="shared" si="4"/>
+        <v>0.79</v>
+      </c>
+      <c r="N91" s="51"/>
+      <c r="O91" s="50"/>
+    </row>
+    <row r="92" spans="1:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A92" s="62"/>
+      <c r="B92" s="85">
+        <f t="shared" si="3"/>
         <v>83</v>
       </c>
-      <c r="C92" s="87" t="s">
+      <c r="C92" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="D92" s="88">
+      <c r="D92" s="101">
         <v>4</v>
       </c>
-      <c r="E92" s="87" t="s">
+      <c r="E92" s="86" t="s">
         <v>188</v>
       </c>
-      <c r="F92" s="87" t="s">
+      <c r="F92" s="86" t="s">
         <v>270</v>
       </c>
-      <c r="G92" s="87"/>
-      <c r="H92" s="87"/>
-      <c r="I92" s="88"/>
-      <c r="J92" s="88" t="s">
+      <c r="G92" s="86" t="s">
+        <v>381</v>
+      </c>
+      <c r="H92" s="86" t="s">
+        <v>188</v>
+      </c>
+      <c r="I92" s="87"/>
+      <c r="J92" s="87" t="s">
         <v>290</v>
       </c>
-      <c r="K92" s="89" t="s">
+      <c r="K92" s="88" t="s">
         <v>372</v>
       </c>
-      <c r="L92" s="25"/>
-      <c r="M92" s="50"/>
-      <c r="N92" s="50"/>
-      <c r="O92" s="51"/>
+      <c r="L92" s="110">
+        <v>0.25</v>
+      </c>
+      <c r="M92" s="100">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N92" s="49"/>
+      <c r="O92" s="50"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A93" s="63"/>
-      <c r="B93" s="27"/>
-      <c r="C93" s="28"/>
+      <c r="A93" s="62"/>
+      <c r="B93" s="26"/>
+      <c r="C93" s="27"/>
       <c r="D93" s="22"/>
       <c r="E93" s="22"/>
       <c r="F93" s="22"/>
-      <c r="G93" s="27"/>
-      <c r="H93" s="26"/>
-      <c r="I93" s="73"/>
-      <c r="J93" s="74"/>
-      <c r="K93" s="75"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="72"/>
+      <c r="J93" s="73"/>
+      <c r="K93" s="74"/>
+      <c r="M93" s="116">
+        <f>SUM(M10:M91)</f>
+        <v>161.90827000000002</v>
+      </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A94" s="63"/>
-      <c r="B94" s="94" t="s">
+      <c r="A94" s="62"/>
+      <c r="B94" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C94" s="95"/>
+      <c r="C94" s="104"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="7"/>
-      <c r="G94" s="70" t="s">
+      <c r="G94" s="69" t="s">
         <v>20</v>
       </c>
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
-      <c r="J94" s="33"/>
-      <c r="K94" s="76"/>
+      <c r="J94" s="32"/>
+      <c r="K94" s="75"/>
     </row>
     <row r="95" spans="1:15" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A95" s="63"/>
-      <c r="B95" s="72"/>
+      <c r="A95" s="62"/>
+      <c r="B95" s="71"/>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
       <c r="F95" s="8"/>
-      <c r="G95" s="71"/>
+      <c r="G95" s="70"/>
       <c r="H95" s="5"/>
-      <c r="I95" s="38"/>
-      <c r="J95" s="37"/>
-      <c r="K95" s="77"/>
-      <c r="L95" s="96"/>
-      <c r="M95" s="97"/>
-      <c r="N95" s="43"/>
+      <c r="I95" s="37"/>
+      <c r="J95" s="36"/>
+      <c r="K95" s="76"/>
+      <c r="L95" s="105"/>
+      <c r="M95" s="106"/>
+      <c r="N95" s="42"/>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A96" s="63"/>
-      <c r="B96" s="72"/>
+      <c r="A96" s="62"/>
+      <c r="B96" s="71"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
       <c r="F96" s="8"/>
-      <c r="G96" s="71"/>
+      <c r="G96" s="70"/>
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
-      <c r="J96" s="34"/>
-      <c r="K96" s="78"/>
-      <c r="L96" s="98"/>
-      <c r="M96" s="98"/>
-      <c r="N96" s="44"/>
+      <c r="J96" s="33"/>
+      <c r="K96" s="77"/>
+      <c r="L96" s="107"/>
+      <c r="M96" s="107"/>
+      <c r="N96" s="43"/>
     </row>
     <row r="97" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="64"/>
+      <c r="A97" s="63"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
       <c r="D97" s="10"/>
       <c r="E97" s="10"/>
       <c r="F97" s="9"/>
-      <c r="G97" s="79"/>
+      <c r="G97" s="78"/>
       <c r="H97" s="9"/>
       <c r="I97" s="9"/>
-      <c r="J97" s="35"/>
-      <c r="K97" s="80"/>
+      <c r="J97" s="34"/>
+      <c r="K97" s="79"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C99" s="1"/>
@@ -5564,114 +6607,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="97" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="98" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="99" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="98" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="99" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="98" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="99" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="82" t="s">
+      <c r="A8" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="105" t="s">
+      <c r="B8" s="98" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="99" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="82" t="s">
+      <c r="A10" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="105" t="s">
+      <c r="B10" s="98" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="106" t="s">
+      <c r="B11" s="99" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="82" t="s">
+      <c r="A12" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="105" t="s">
+      <c r="B12" s="98" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="81" t="s">
+      <c r="A13" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="106" t="s">
+      <c r="B13" s="99" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="82" t="s">
+      <c r="A14" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="105" t="s">
+      <c r="B14" s="98" t="s">
         <v>379</v>
       </c>
     </row>
